--- a/DBF list of propeller data needed.xlsx
+++ b/DBF list of propeller data needed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe1ca5d0fde44768/Documents/UCSD/DBF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\dbf-propulsions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD3BDB3-9794-425C-84EB-A2FD74CCF8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E943B15F-E422-4B3F-94F3-7542D5B34A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6732" yWindow="1032" windowWidth="17388" windowHeight="10440" xr2:uid="{F8984420-C341-4625-B6D8-E59D36BCB41E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{F8984420-C341-4625-B6D8-E59D36BCB41E}"/>
   </bookViews>
   <sheets>
     <sheet name="NEED" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="864">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2621,6 +2621,18 @@
   </si>
   <si>
     <t>we also have the 8x7 already uploaded in github</t>
+  </si>
+  <si>
+    <t>EP = Electric Pusher Propeller</t>
+  </si>
+  <si>
+    <t>Leave anything that is in cm</t>
+  </si>
+  <si>
+    <t>ex) 100 diameter</t>
+  </si>
+  <si>
+    <t>if theres any weird parenthesis leave it out</t>
   </si>
 </sst>
 </file>
@@ -2708,7 +2720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2721,7 +2733,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2749,10 +2760,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3055,17 +3062,17 @@
   <dimension ref="A1:H338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.20703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.68359375" customWidth="1"/>
+    <col min="5" max="5" width="20.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -3082,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3093,7 +3100,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -3104,7 +3111,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -3118,7 +3125,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3132,7 +3139,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -3142,11 +3149,11 @@
       <c r="C6" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3157,7 +3164,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3167,8 +3174,11 @@
       <c r="C8" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -3178,8 +3188,14 @@
       <c r="C9" s="4" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -3189,8 +3205,11 @@
       <c r="C10" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -3201,7 +3220,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -3212,7 +3231,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3223,7 +3242,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -3234,7 +3253,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -3245,7 +3264,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -3256,7 +3275,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -3267,7 +3286,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -3278,7 +3297,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -3289,7 +3308,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -3300,7 +3319,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -3311,7 +3330,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -3322,7 +3341,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -3333,7 +3352,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -3344,7 +3363,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3355,7 +3374,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -3366,7 +3385,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
         <v>617</v>
       </c>
@@ -3377,7 +3396,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -3399,7 +3418,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -3410,7 +3429,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -3421,7 +3440,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -3432,7 +3451,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -3443,7 +3462,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -3454,7 +3473,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -3465,7 +3484,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -3476,7 +3495,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -3487,7 +3506,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -3498,7 +3517,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -3509,7 +3528,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -3520,7 +3539,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -3531,7 +3550,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -3542,7 +3561,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>578</v>
       </c>
@@ -3550,7 +3569,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>579</v>
       </c>
@@ -3558,7 +3577,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>580</v>
       </c>
@@ -3566,7 +3585,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>581</v>
       </c>
@@ -3574,7 +3593,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>582</v>
       </c>
@@ -3582,7 +3601,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
         <v>583</v>
       </c>
@@ -3590,7 +3609,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>584</v>
       </c>
@@ -3598,7 +3617,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
         <v>585</v>
       </c>
@@ -3606,7 +3625,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
         <v>586</v>
       </c>
@@ -3614,7 +3633,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" t="s">
         <v>587</v>
       </c>
@@ -3622,7 +3641,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="3" t="s">
         <v>21</v>
       </c>
@@ -3630,7 +3649,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
         <v>588</v>
       </c>
@@ -3638,7 +3657,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" t="s">
         <v>589</v>
       </c>
@@ -3646,7 +3665,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
         <v>590</v>
       </c>
@@ -3654,7 +3673,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
         <v>591</v>
       </c>
@@ -3662,7 +3681,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" t="s">
         <v>592</v>
       </c>
@@ -3670,7 +3689,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>593</v>
       </c>
@@ -3678,7 +3697,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
         <v>594</v>
       </c>
@@ -3686,7 +3705,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
         <v>595</v>
       </c>
@@ -3694,7 +3713,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
         <v>596</v>
       </c>
@@ -3702,7 +3721,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
         <v>597</v>
       </c>
@@ -3710,7 +3729,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
         <v>598</v>
       </c>
@@ -3718,7 +3737,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
         <v>599</v>
       </c>
@@ -3726,7 +3745,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="3" t="s">
         <v>22</v>
       </c>
@@ -3734,7 +3753,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="3" t="s">
         <v>23</v>
       </c>
@@ -3742,7 +3761,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" t="s">
         <v>600</v>
       </c>
@@ -3750,7 +3769,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" t="s">
         <v>601</v>
       </c>
@@ -3758,7 +3777,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" t="s">
         <v>602</v>
       </c>
@@ -3766,7 +3785,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" t="s">
         <v>603</v>
       </c>
@@ -3774,7 +3793,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" t="s">
         <v>604</v>
       </c>
@@ -3782,7 +3801,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
         <v>605</v>
       </c>
@@ -3790,7 +3809,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>606</v>
       </c>
@@ -3798,7 +3817,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" t="s">
         <v>607</v>
       </c>
@@ -3806,7 +3825,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
         <v>608</v>
       </c>
@@ -3814,7 +3833,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" t="s">
         <v>609</v>
       </c>
@@ -3822,7 +3841,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="3" t="s">
         <v>24</v>
       </c>
@@ -3830,7 +3849,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="3" t="s">
         <v>25</v>
       </c>
@@ -3838,7 +3857,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" t="s">
         <v>610</v>
       </c>
@@ -3846,7 +3865,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" t="s">
         <v>611</v>
       </c>
@@ -3854,7 +3873,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="3" t="s">
         <v>26</v>
       </c>
@@ -3862,7 +3881,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" t="s">
         <v>612</v>
       </c>
@@ -3870,7 +3889,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
         <v>613</v>
       </c>
@@ -3878,7 +3897,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" t="s">
         <v>614</v>
       </c>
@@ -3886,7 +3905,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" t="s">
         <v>615</v>
       </c>
@@ -3894,7 +3913,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" t="s">
         <v>616</v>
       </c>
@@ -3902,7 +3921,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="3" t="s">
         <v>617</v>
       </c>
@@ -3910,7 +3929,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="3" t="s">
         <v>27</v>
       </c>
@@ -3918,7 +3937,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="3" t="s">
         <v>28</v>
       </c>
@@ -3926,7 +3945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="3" t="s">
         <v>29</v>
       </c>
@@ -3934,7 +3953,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="3" t="s">
         <v>30</v>
       </c>
@@ -3942,7 +3961,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" t="s">
         <v>618</v>
       </c>
@@ -3950,7 +3969,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" t="s">
         <v>619</v>
       </c>
@@ -3958,7 +3977,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" t="s">
         <v>620</v>
       </c>
@@ -3966,7 +3985,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" t="s">
         <v>621</v>
       </c>
@@ -3974,7 +3993,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
         <v>622</v>
       </c>
@@ -3982,7 +4001,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
         <v>623</v>
       </c>
@@ -3990,7 +4009,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
         <v>624</v>
       </c>
@@ -3998,7 +4017,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
         <v>625</v>
       </c>
@@ -4006,7 +4025,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="3" t="s">
         <v>31</v>
       </c>
@@ -4014,7 +4033,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>626</v>
       </c>
@@ -4022,7 +4041,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
         <v>627</v>
       </c>
@@ -4030,7 +4049,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" t="s">
         <v>628</v>
       </c>
@@ -4038,7 +4057,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" t="s">
         <v>629</v>
       </c>
@@ -4046,7 +4065,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
         <v>630</v>
       </c>
@@ -4054,7 +4073,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
         <v>631</v>
       </c>
@@ -4062,7 +4081,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>632</v>
       </c>
@@ -4070,7 +4089,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" t="s">
         <v>633</v>
       </c>
@@ -4078,7 +4097,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
         <v>634</v>
       </c>
@@ -4086,7 +4105,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="3" t="s">
         <v>32</v>
       </c>
@@ -4094,7 +4113,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="3" t="s">
         <v>33</v>
       </c>
@@ -4102,7 +4121,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" t="s">
         <v>635</v>
       </c>
@@ -4110,7 +4129,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="3" t="s">
         <v>34</v>
       </c>
@@ -4118,7 +4137,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" t="s">
         <v>636</v>
       </c>
@@ -4126,7 +4145,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
         <v>637</v>
       </c>
@@ -4134,7 +4153,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
         <v>638</v>
       </c>
@@ -4142,7 +4161,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
         <v>639</v>
       </c>
@@ -4150,7 +4169,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
         <v>640</v>
       </c>
@@ -4158,7 +4177,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" t="s">
         <v>641</v>
       </c>
@@ -4166,7 +4185,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" t="s">
         <v>642</v>
       </c>
@@ -4174,7 +4193,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="s">
         <v>643</v>
       </c>
@@ -4182,7 +4201,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="s">
         <v>644</v>
       </c>
@@ -4190,7 +4209,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="s">
         <v>645</v>
       </c>
@@ -4198,7 +4217,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="s">
         <v>646</v>
       </c>
@@ -4206,7 +4225,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" t="s">
         <v>647</v>
       </c>
@@ -4214,7 +4233,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" t="s">
         <v>648</v>
       </c>
@@ -4222,7 +4241,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" t="s">
         <v>649</v>
       </c>
@@ -4230,7 +4249,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" t="s">
         <v>650</v>
       </c>
@@ -4238,7 +4257,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" t="s">
         <v>651</v>
       </c>
@@ -4246,7 +4265,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" t="s">
         <v>652</v>
       </c>
@@ -4254,7 +4273,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="3" t="s">
         <v>35</v>
       </c>
@@ -4262,7 +4281,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" t="s">
         <v>653</v>
       </c>
@@ -4270,7 +4289,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" t="s">
         <v>654</v>
       </c>
@@ -4278,7 +4297,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" t="s">
         <v>655</v>
       </c>
@@ -4286,7 +4305,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" t="s">
         <v>656</v>
       </c>
@@ -4294,7 +4313,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" t="s">
         <v>657</v>
       </c>
@@ -4302,7 +4321,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" t="s">
         <v>658</v>
       </c>
@@ -4310,7 +4329,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" t="s">
         <v>659</v>
       </c>
@@ -4318,7 +4337,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" t="s">
         <v>660</v>
       </c>
@@ -4326,7 +4345,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" t="s">
         <v>661</v>
       </c>
@@ -4334,7 +4353,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" t="s">
         <v>662</v>
       </c>
@@ -4342,7 +4361,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" t="s">
         <v>663</v>
       </c>
@@ -4350,7 +4369,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" t="s">
         <v>664</v>
       </c>
@@ -4358,7 +4377,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" t="s">
         <v>665</v>
       </c>
@@ -4366,7 +4385,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" t="s">
         <v>666</v>
       </c>
@@ -4374,7 +4393,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" t="s">
         <v>667</v>
       </c>
@@ -4382,7 +4401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" t="s">
         <v>668</v>
       </c>
@@ -4390,7 +4409,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" t="s">
         <v>669</v>
       </c>
@@ -4398,7 +4417,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" t="s">
         <v>670</v>
       </c>
@@ -4406,7 +4425,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" t="s">
         <v>671</v>
       </c>
@@ -4414,7 +4433,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" t="s">
         <v>672</v>
       </c>
@@ -4422,7 +4441,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" t="s">
         <v>673</v>
       </c>
@@ -4430,7 +4449,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" t="s">
         <v>674</v>
       </c>
@@ -4438,7 +4457,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" t="s">
         <v>675</v>
       </c>
@@ -4446,7 +4465,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" t="s">
         <v>676</v>
       </c>
@@ -4454,7 +4473,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" t="s">
         <v>677</v>
       </c>
@@ -4462,7 +4481,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" t="s">
         <v>678</v>
       </c>
@@ -4470,7 +4489,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" t="s">
         <v>679</v>
       </c>
@@ -4478,7 +4497,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" t="s">
         <v>680</v>
       </c>
@@ -4486,7 +4505,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" t="s">
         <v>681</v>
       </c>
@@ -4494,7 +4513,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" t="s">
         <v>682</v>
       </c>
@@ -4502,7 +4521,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" t="s">
         <v>683</v>
       </c>
@@ -4510,7 +4529,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" t="s">
         <v>684</v>
       </c>
@@ -4518,7 +4537,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" t="s">
         <v>685</v>
       </c>
@@ -4526,7 +4545,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" t="s">
         <v>686</v>
       </c>
@@ -4534,7 +4553,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" t="s">
         <v>687</v>
       </c>
@@ -4542,7 +4561,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" t="s">
         <v>688</v>
       </c>
@@ -4550,7 +4569,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" t="s">
         <v>689</v>
       </c>
@@ -4558,7 +4577,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" t="s">
         <v>690</v>
       </c>
@@ -4566,7 +4585,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" t="s">
         <v>691</v>
       </c>
@@ -4574,7 +4593,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" t="s">
         <v>692</v>
       </c>
@@ -4582,7 +4601,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" t="s">
         <v>693</v>
       </c>
@@ -4590,7 +4609,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" t="s">
         <v>694</v>
       </c>
@@ -4598,7 +4617,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" t="s">
         <v>695</v>
       </c>
@@ -4606,7 +4625,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" t="s">
         <v>696</v>
       </c>
@@ -4614,7 +4633,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" t="s">
         <v>697</v>
       </c>
@@ -4622,7 +4641,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" t="s">
         <v>698</v>
       </c>
@@ -4630,7 +4649,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" t="s">
         <v>699</v>
       </c>
@@ -4638,7 +4657,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" t="s">
         <v>700</v>
       </c>
@@ -4646,7 +4665,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" t="s">
         <v>701</v>
       </c>
@@ -4654,7 +4673,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" t="s">
         <v>702</v>
       </c>
@@ -4662,7 +4681,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" t="s">
         <v>703</v>
       </c>
@@ -4670,7 +4689,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" t="s">
         <v>704</v>
       </c>
@@ -4678,7 +4697,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" t="s">
         <v>705</v>
       </c>
@@ -4686,7 +4705,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" t="s">
         <v>706</v>
       </c>
@@ -4694,7 +4713,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" t="s">
         <v>707</v>
       </c>
@@ -4702,7 +4721,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" t="s">
         <v>708</v>
       </c>
@@ -4710,7 +4729,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" t="s">
         <v>709</v>
       </c>
@@ -4718,7 +4737,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" t="s">
         <v>710</v>
       </c>
@@ -4726,7 +4745,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" t="s">
         <v>711</v>
       </c>
@@ -4734,7 +4753,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" t="s">
         <v>712</v>
       </c>
@@ -4742,7 +4761,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" t="s">
         <v>713</v>
       </c>
@@ -4750,7 +4769,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" t="s">
         <v>714</v>
       </c>
@@ -4758,7 +4777,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" t="s">
         <v>715</v>
       </c>
@@ -4766,7 +4785,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" t="s">
         <v>716</v>
       </c>
@@ -4774,7 +4793,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" t="s">
         <v>717</v>
       </c>
@@ -4782,7 +4801,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" t="s">
         <v>718</v>
       </c>
@@ -4790,7 +4809,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" t="s">
         <v>719</v>
       </c>
@@ -4798,7 +4817,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" t="s">
         <v>720</v>
       </c>
@@ -4806,7 +4825,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" t="s">
         <v>721</v>
       </c>
@@ -4814,7 +4833,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" t="s">
         <v>722</v>
       </c>
@@ -4822,7 +4841,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" t="s">
         <v>723</v>
       </c>
@@ -4830,7 +4849,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" t="s">
         <v>724</v>
       </c>
@@ -4838,7 +4857,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" t="s">
         <v>725</v>
       </c>
@@ -4846,7 +4865,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" t="s">
         <v>726</v>
       </c>
@@ -4854,7 +4873,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" t="s">
         <v>727</v>
       </c>
@@ -4862,7 +4881,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" t="s">
         <v>728</v>
       </c>
@@ -4870,7 +4889,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" t="s">
         <v>729</v>
       </c>
@@ -4878,7 +4897,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" t="s">
         <v>730</v>
       </c>
@@ -4886,7 +4905,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" t="s">
         <v>731</v>
       </c>
@@ -4894,7 +4913,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" t="s">
         <v>732</v>
       </c>
@@ -4902,7 +4921,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" t="s">
         <v>733</v>
       </c>
@@ -4910,7 +4929,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" t="s">
         <v>734</v>
       </c>
@@ -4918,7 +4937,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" t="s">
         <v>735</v>
       </c>
@@ -4926,7 +4945,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" t="s">
         <v>736</v>
       </c>
@@ -4934,7 +4953,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" t="s">
         <v>737</v>
       </c>
@@ -4942,7 +4961,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" t="s">
         <v>738</v>
       </c>
@@ -4950,7 +4969,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" t="s">
         <v>739</v>
       </c>
@@ -4958,7 +4977,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" t="s">
         <v>740</v>
       </c>
@@ -4966,7 +4985,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" t="s">
         <v>741</v>
       </c>
@@ -4974,7 +4993,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" t="s">
         <v>742</v>
       </c>
@@ -4982,7 +5001,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" t="s">
         <v>743</v>
       </c>
@@ -4990,7 +5009,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" t="s">
         <v>744</v>
       </c>
@@ -4998,7 +5017,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" t="s">
         <v>745</v>
       </c>
@@ -5006,7 +5025,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" t="s">
         <v>746</v>
       </c>
@@ -5014,7 +5033,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" t="s">
         <v>747</v>
       </c>
@@ -5022,7 +5041,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" t="s">
         <v>748</v>
       </c>
@@ -5030,7 +5049,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" t="s">
         <v>749</v>
       </c>
@@ -5038,7 +5057,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" t="s">
         <v>750</v>
       </c>
@@ -5046,7 +5065,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" t="s">
         <v>751</v>
       </c>
@@ -5054,7 +5073,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B232" t="s">
         <v>752</v>
       </c>
@@ -5062,7 +5081,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B233" t="s">
         <v>753</v>
       </c>
@@ -5070,7 +5089,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B234" t="s">
         <v>754</v>
       </c>
@@ -5078,7 +5097,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B235" t="s">
         <v>755</v>
       </c>
@@ -5086,7 +5105,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B236" t="s">
         <v>756</v>
       </c>
@@ -5094,7 +5113,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B237" t="s">
         <v>757</v>
       </c>
@@ -5102,7 +5121,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B238" t="s">
         <v>758</v>
       </c>
@@ -5110,7 +5129,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B239" t="s">
         <v>759</v>
       </c>
@@ -5118,7 +5137,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B240" t="s">
         <v>760</v>
       </c>
@@ -5126,7 +5145,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B241" t="s">
         <v>761</v>
       </c>
@@ -5134,7 +5153,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B242" t="s">
         <v>762</v>
       </c>
@@ -5142,7 +5161,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B243" t="s">
         <v>763</v>
       </c>
@@ -5150,7 +5169,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B244" t="s">
         <v>764</v>
       </c>
@@ -5158,7 +5177,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B245" t="s">
         <v>765</v>
       </c>
@@ -5166,7 +5185,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B246" t="s">
         <v>766</v>
       </c>
@@ -5174,7 +5193,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B247" t="s">
         <v>767</v>
       </c>
@@ -5182,7 +5201,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B248" t="s">
         <v>768</v>
       </c>
@@ -5190,7 +5209,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B249" t="s">
         <v>769</v>
       </c>
@@ -5198,7 +5217,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B250" t="s">
         <v>770</v>
       </c>
@@ -5206,7 +5225,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B251" t="s">
         <v>771</v>
       </c>
@@ -5214,7 +5233,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B252" t="s">
         <v>772</v>
       </c>
@@ -5222,7 +5241,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B253" t="s">
         <v>773</v>
       </c>
@@ -5230,7 +5249,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B254" t="s">
         <v>774</v>
       </c>
@@ -5238,7 +5257,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B255" t="s">
         <v>775</v>
       </c>
@@ -5246,7 +5265,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B256" t="s">
         <v>776</v>
       </c>
@@ -5254,7 +5273,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B257" t="s">
         <v>777</v>
       </c>
@@ -5262,7 +5281,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B258" t="s">
         <v>778</v>
       </c>
@@ -5270,7 +5289,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B259" t="s">
         <v>779</v>
       </c>
@@ -5278,7 +5297,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B260" t="s">
         <v>780</v>
       </c>
@@ -5286,7 +5305,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B261" t="s">
         <v>781</v>
       </c>
@@ -5294,7 +5313,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B262" t="s">
         <v>782</v>
       </c>
@@ -5302,7 +5321,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B263" s="3" t="s">
         <v>783</v>
       </c>
@@ -5310,7 +5329,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B264" t="s">
         <v>784</v>
       </c>
@@ -5318,7 +5337,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B265" t="s">
         <v>785</v>
       </c>
@@ -5326,7 +5345,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B266" t="s">
         <v>786</v>
       </c>
@@ -5334,7 +5353,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B267" t="s">
         <v>36</v>
       </c>
@@ -5342,7 +5361,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B268" t="s">
         <v>787</v>
       </c>
@@ -5350,7 +5369,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B269" t="s">
         <v>788</v>
       </c>
@@ -5358,7 +5377,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B270" t="s">
         <v>789</v>
       </c>
@@ -5366,7 +5385,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B271" t="s">
         <v>790</v>
       </c>
@@ -5374,7 +5393,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B272" t="s">
         <v>791</v>
       </c>
@@ -5382,7 +5401,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B273" t="s">
         <v>792</v>
       </c>
@@ -5390,7 +5409,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B274" t="s">
         <v>793</v>
       </c>
@@ -5398,7 +5417,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B275" t="s">
         <v>794</v>
       </c>
@@ -5406,7 +5425,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B276" t="s">
         <v>795</v>
       </c>
@@ -5414,7 +5433,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B277" s="3" t="s">
         <v>796</v>
       </c>
@@ -5422,7 +5441,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B278" t="s">
         <v>37</v>
       </c>
@@ -5430,7 +5449,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B279" t="s">
         <v>797</v>
       </c>
@@ -5438,7 +5457,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B280" t="s">
         <v>798</v>
       </c>
@@ -5446,7 +5465,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B281" t="s">
         <v>799</v>
       </c>
@@ -5454,7 +5473,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B282" t="s">
         <v>800</v>
       </c>
@@ -5462,7 +5481,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B283" t="s">
         <v>801</v>
       </c>
@@ -5470,7 +5489,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B284" t="s">
         <v>802</v>
       </c>
@@ -5478,7 +5497,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B285" t="s">
         <v>803</v>
       </c>
@@ -5486,7 +5505,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B286" t="s">
         <v>804</v>
       </c>
@@ -5494,7 +5513,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B287" t="s">
         <v>805</v>
       </c>
@@ -5502,7 +5521,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B288" t="s">
         <v>806</v>
       </c>
@@ -5510,7 +5529,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B289" t="s">
         <v>807</v>
       </c>
@@ -5518,7 +5537,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B290" t="s">
         <v>808</v>
       </c>
@@ -5526,7 +5545,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B291" t="s">
         <v>809</v>
       </c>
@@ -5534,7 +5553,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B292" t="s">
         <v>810</v>
       </c>
@@ -5542,7 +5561,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B293" t="s">
         <v>811</v>
       </c>
@@ -5550,7 +5569,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B294" t="s">
         <v>812</v>
       </c>
@@ -5558,7 +5577,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B295" t="s">
         <v>813</v>
       </c>
@@ -5566,7 +5585,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B296" t="s">
         <v>814</v>
       </c>
@@ -5574,7 +5593,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B297" t="s">
         <v>815</v>
       </c>
@@ -5582,7 +5601,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B298" t="s">
         <v>816</v>
       </c>
@@ -5590,7 +5609,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B299" t="s">
         <v>817</v>
       </c>
@@ -5598,7 +5617,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B300" t="s">
         <v>818</v>
       </c>
@@ -5606,7 +5625,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B301" t="s">
         <v>819</v>
       </c>
@@ -5614,7 +5633,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B302" t="s">
         <v>820</v>
       </c>
@@ -5622,7 +5641,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B303" t="s">
         <v>821</v>
       </c>
@@ -5630,7 +5649,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B304" t="s">
         <v>822</v>
       </c>
@@ -5638,7 +5657,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B305" t="s">
         <v>823</v>
       </c>
@@ -5646,7 +5665,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B306" s="3" t="s">
         <v>824</v>
       </c>
@@ -5654,7 +5673,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B307" t="s">
         <v>38</v>
       </c>
@@ -5662,7 +5681,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B308" t="s">
         <v>825</v>
       </c>
@@ -5670,7 +5689,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B309" t="s">
         <v>826</v>
       </c>
@@ -5678,7 +5697,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B310" t="s">
         <v>827</v>
       </c>
@@ -5686,7 +5705,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B311" s="3" t="s">
         <v>39</v>
       </c>
@@ -5694,7 +5713,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B312" t="s">
         <v>828</v>
       </c>
@@ -5702,7 +5721,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B313" t="s">
         <v>829</v>
       </c>
@@ -5710,7 +5729,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B314" t="s">
         <v>830</v>
       </c>
@@ -5718,7 +5737,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B315" t="s">
         <v>831</v>
       </c>
@@ -5726,7 +5745,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B316" t="s">
         <v>832</v>
       </c>
@@ -5734,7 +5753,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B317" t="s">
         <v>833</v>
       </c>
@@ -5742,7 +5761,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B318" t="s">
         <v>834</v>
       </c>
@@ -5750,7 +5769,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B319" t="s">
         <v>835</v>
       </c>
@@ -5758,7 +5777,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B320" t="s">
         <v>836</v>
       </c>
@@ -5766,7 +5785,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B321" t="s">
         <v>837</v>
       </c>
@@ -5774,7 +5793,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B322" t="s">
         <v>838</v>
       </c>
@@ -5782,7 +5801,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B323" t="s">
         <v>839</v>
       </c>
@@ -5790,7 +5809,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B324" t="s">
         <v>840</v>
       </c>
@@ -5798,7 +5817,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B325" t="s">
         <v>841</v>
       </c>
@@ -5806,7 +5825,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B326" t="s">
         <v>842</v>
       </c>
@@ -5814,7 +5833,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B327" t="s">
         <v>843</v>
       </c>
@@ -5822,7 +5841,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B328" s="3" t="s">
         <v>40</v>
       </c>
@@ -5830,7 +5849,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B329" t="s">
         <v>844</v>
       </c>
@@ -5838,7 +5857,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B330" s="3" t="s">
         <v>41</v>
       </c>
@@ -5846,7 +5865,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B331" t="s">
         <v>845</v>
       </c>
@@ -5854,7 +5873,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" t="s">
         <v>846</v>
       </c>
@@ -5862,7 +5881,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" t="s">
         <v>847</v>
       </c>
@@ -5870,7 +5889,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" t="s">
         <v>848</v>
       </c>
@@ -5878,7 +5897,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" t="s">
         <v>849</v>
       </c>
@@ -5886,7 +5905,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" t="s">
         <v>850</v>
       </c>
@@ -5894,7 +5913,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" t="s">
         <v>851</v>
       </c>
@@ -5902,7 +5921,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" t="s">
         <v>852</v>
       </c>
@@ -6267,14 +6286,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.5234375" customWidth="1"/>
+    <col min="3" max="3" width="18.41796875" customWidth="1"/>
+    <col min="4" max="4" width="27.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>42</v>
       </c>
@@ -6285,7 +6304,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>549</v>
       </c>
@@ -6301,7 +6320,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
         <v>550</v>
       </c>
@@ -6317,7 +6336,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
         <v>551</v>
       </c>
@@ -6330,7 +6349,7 @@
         <v>10x10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>552</v>
       </c>
@@ -6343,7 +6362,7 @@
         <v>10x10E</v>
       </c>
     </row>
-    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
@@ -6352,7 +6371,7 @@
         <v>PER3_10x12-------------------</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
         <v>553</v>
       </c>
@@ -6365,7 +6384,7 @@
         <v>10x3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
@@ -6374,7 +6393,7 @@
         <v>PER3_10x38-------------------</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2" t="s">
         <v>554</v>
       </c>
@@ -6387,7 +6406,7 @@
         <v>10x4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2" t="s">
         <v>90</v>
       </c>
@@ -6396,7 +6415,7 @@
         <v>PER3_10x45-------------------</v>
       </c>
     </row>
-    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
@@ -6405,7 +6424,7 @@
         <v>PER3_10x45-------------------</v>
       </c>
     </row>
-    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
@@ -6414,7 +6433,7 @@
         <v>PER3_10x46-------------------</v>
       </c>
     </row>
-    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
@@ -6423,7 +6442,7 @@
         <v>PER3_10x47-------------------</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
         <v>555</v>
       </c>
@@ -6436,7 +6455,7 @@
         <v>10x5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>91</v>
       </c>
@@ -6445,7 +6464,7 @@
         <v>PER3_10x55-------------------</v>
       </c>
     </row>
-    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
         <v>116</v>
       </c>
@@ -6454,7 +6473,7 @@
         <v>PER3_10x58-------------------</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
         <v>556</v>
       </c>
@@ -6467,7 +6486,7 @@
         <v>10x5E</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2" t="s">
         <v>557</v>
       </c>
@@ -6480,7 +6499,7 @@
         <v>10x6-4</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2" t="s">
         <v>558</v>
       </c>
@@ -6493,7 +6512,7 @@
         <v>10x6</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2" t="s">
         <v>559</v>
       </c>
@@ -6506,7 +6525,7 @@
         <v>10x6E</v>
       </c>
     </row>
-    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2" t="s">
         <v>105</v>
       </c>
@@ -6515,7 +6534,7 @@
         <v>PER3_10x6-------------------</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2" t="s">
         <v>560</v>
       </c>
@@ -6528,7 +6547,7 @@
         <v>10x7-3</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2" t="s">
         <v>561</v>
       </c>
@@ -6541,7 +6560,7 @@
         <v>10x7</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2" t="s">
         <v>562</v>
       </c>
@@ -6554,7 +6573,7 @@
         <v>10x7E</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
@@ -6563,7 +6582,7 @@
         <v>PER3_10x7-------------------</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2" t="s">
         <v>563</v>
       </c>
@@ -6576,7 +6595,7 @@
         <v>10x8</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2" t="s">
         <v>564</v>
       </c>
@@ -6589,7 +6608,7 @@
         <v>10x8E</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2" t="s">
         <v>565</v>
       </c>
@@ -6602,7 +6621,7 @@
         <v>10x9</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
@@ -6611,7 +6630,7 @@
         <v>PER3_115x125-------------------</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2" t="s">
         <v>229</v>
       </c>
@@ -6624,7 +6643,7 @@
         <v>115x4</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2" t="s">
         <v>230</v>
       </c>
@@ -6637,7 +6656,7 @@
         <v>115x6</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2" t="s">
         <v>231</v>
       </c>
@@ -6650,7 +6669,7 @@
         <v>11x10</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2" t="s">
         <v>232</v>
       </c>
@@ -6663,7 +6682,7 @@
         <v>11x10E</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2" t="s">
         <v>233</v>
       </c>
@@ -6676,7 +6695,7 @@
         <v>11x11</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2" t="s">
         <v>234</v>
       </c>
@@ -6689,7 +6708,7 @@
         <v>11x12</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2" t="s">
         <v>235</v>
       </c>
@@ -6702,7 +6721,7 @@
         <v>11x12E</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2" t="s">
         <v>184</v>
       </c>
@@ -6711,7 +6730,7 @@
         <v>PER3_11x12-------------------</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="2" t="s">
         <v>236</v>
       </c>
@@ -6724,7 +6743,7 @@
         <v>11x13</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2" t="s">
         <v>237</v>
       </c>
@@ -6737,7 +6756,7 @@
         <v>11x14</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="2" t="s">
         <v>238</v>
       </c>
@@ -6750,7 +6769,7 @@
         <v>11x3</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
@@ -6759,7 +6778,7 @@
         <v>PER3_11x38-------------------</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2" t="s">
         <v>239</v>
       </c>
@@ -6772,7 +6791,7 @@
         <v>11x4</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="2" t="s">
         <v>240</v>
       </c>
@@ -6785,7 +6804,7 @@
         <v>11x45EP</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
@@ -6794,7 +6813,7 @@
         <v>PER3_11x45-------------------</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="2" t="s">
         <v>65</v>
       </c>
@@ -6803,7 +6822,7 @@
         <v>PER3_11x46-------------------</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="2" t="s">
         <v>66</v>
       </c>
@@ -6812,7 +6831,7 @@
         <v>PER3_11x47-------------------</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2" t="s">
         <v>241</v>
       </c>
@@ -6825,7 +6844,7 @@
         <v>11x5</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="2" t="s">
         <v>242</v>
       </c>
@@ -6838,7 +6857,7 @@
         <v>11x55E</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="2" t="s">
         <v>93</v>
       </c>
@@ -6847,7 +6866,7 @@
         <v>PER3_11x55-------------------</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="2" t="s">
         <v>243</v>
       </c>
@@ -6860,7 +6879,7 @@
         <v>11x6-4</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2" t="s">
         <v>244</v>
       </c>
@@ -6873,7 +6892,7 @@
         <v>11x6</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="2" t="s">
         <v>245</v>
       </c>
@@ -6886,7 +6905,7 @@
         <v>11x7</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
@@ -6899,7 +6918,7 @@
         <v>11x7E</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="2" t="s">
         <v>247</v>
       </c>
@@ -6912,7 +6931,7 @@
         <v>11x7E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="2" t="s">
         <v>67</v>
       </c>
@@ -6921,7 +6940,7 @@
         <v>PER3_11x7-------------------</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="2" t="s">
         <v>248</v>
       </c>
@@ -6934,7 +6953,7 @@
         <v>11x8</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="2" t="s">
         <v>249</v>
       </c>
@@ -6947,7 +6966,7 @@
         <v>11x85E</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="2" t="s">
         <v>250</v>
       </c>
@@ -6960,7 +6979,7 @@
         <v>11x8E</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="2" t="s">
         <v>106</v>
       </c>
@@ -6969,7 +6988,7 @@
         <v>PER3_11x8-------------------</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="2" t="s">
         <v>251</v>
       </c>
@@ -6982,7 +7001,7 @@
         <v>11x9-4</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="2" t="s">
         <v>252</v>
       </c>
@@ -6995,7 +7014,7 @@
         <v>11x9</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="2" t="s">
         <v>253</v>
       </c>
@@ -7008,7 +7027,7 @@
         <v>1225x375</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="2" t="s">
         <v>254</v>
       </c>
@@ -7021,7 +7040,7 @@
         <v>125x10</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="2" t="s">
         <v>255</v>
       </c>
@@ -7034,7 +7053,7 @@
         <v>125x11</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="2" t="s">
         <v>256</v>
       </c>
@@ -7047,7 +7066,7 @@
         <v>125x115</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="2" t="s">
         <v>257</v>
       </c>
@@ -7060,7 +7079,7 @@
         <v>125x12</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="2" t="s">
         <v>258</v>
       </c>
@@ -7073,7 +7092,7 @@
         <v>125x125</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="2" t="s">
         <v>259</v>
       </c>
@@ -7086,7 +7105,7 @@
         <v>125x13</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="2" t="s">
         <v>260</v>
       </c>
@@ -7099,7 +7118,7 @@
         <v>125x6</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="2" t="s">
         <v>261</v>
       </c>
@@ -7112,7 +7131,7 @@
         <v>125x9</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
@@ -7125,7 +7144,7 @@
         <v>12x10</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="2" t="s">
         <v>263</v>
       </c>
@@ -7138,7 +7157,7 @@
         <v>12x10E</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="2" t="s">
         <v>185</v>
       </c>
@@ -7147,7 +7166,7 @@
         <v>PER3_12x10-------------------</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="2" t="s">
         <v>264</v>
       </c>
@@ -7160,7 +7179,7 @@
         <v>12x11</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="2" t="s">
         <v>265</v>
       </c>
@@ -7173,7 +7192,7 @@
         <v>12x115</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="2" t="s">
         <v>119</v>
       </c>
@@ -7182,7 +7201,7 @@
         <v>PER3_12x11-------------------</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="2" t="s">
         <v>266</v>
       </c>
@@ -7195,7 +7214,7 @@
         <v>12x12</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="2" t="s">
         <v>267</v>
       </c>
@@ -7208,7 +7227,7 @@
         <v>12x125</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="2" t="s">
         <v>268</v>
       </c>
@@ -7221,7 +7240,7 @@
         <v>12x12E</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="2" t="s">
         <v>120</v>
       </c>
@@ -7230,7 +7249,7 @@
         <v>PER3_12x12-------------------</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="2" t="s">
         <v>269</v>
       </c>
@@ -7243,7 +7262,7 @@
         <v>12x13</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="2" t="s">
         <v>121</v>
       </c>
@@ -7252,7 +7271,7 @@
         <v>PER3_12x13-------------------</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="2" t="s">
         <v>270</v>
       </c>
@@ -7265,7 +7284,7 @@
         <v>12x14</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="2" t="s">
         <v>68</v>
       </c>
@@ -7274,7 +7293,7 @@
         <v>PER3_12x38-------------------</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="2" t="s">
         <v>271</v>
       </c>
@@ -7287,7 +7306,7 @@
         <v>12x4</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="2" t="s">
         <v>94</v>
       </c>
@@ -7296,7 +7315,7 @@
         <v>PER3_12x45-------------------</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="2" t="s">
         <v>69</v>
       </c>
@@ -7305,7 +7324,7 @@
         <v>PER3_12x47-------------------</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="2" t="s">
         <v>272</v>
       </c>
@@ -7318,7 +7337,7 @@
         <v>12x5</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="2" t="s">
         <v>95</v>
       </c>
@@ -7327,7 +7346,7 @@
         <v>PER3_12x55-------------------</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="2" t="s">
         <v>273</v>
       </c>
@@ -7340,7 +7359,7 @@
         <v>12x6</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="2" t="s">
         <v>117</v>
       </c>
@@ -7349,7 +7368,7 @@
         <v>PER3_12x65W-------------------</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="2" t="s">
         <v>274</v>
       </c>
@@ -7362,7 +7381,7 @@
         <v>12x6E</v>
       </c>
     </row>
-    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
@@ -7371,7 +7390,7 @@
         <v>PER3_12x6-------------------</v>
       </c>
     </row>
-    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="2" t="s">
         <v>70</v>
       </c>
@@ -7380,7 +7399,7 @@
         <v>PER3_12x6-------------------</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="2" t="s">
         <v>275</v>
       </c>
@@ -7393,7 +7412,7 @@
         <v>12x7</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="2" t="s">
         <v>276</v>
       </c>
@@ -7406,7 +7425,7 @@
         <v>12x8</v>
       </c>
     </row>
-    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="2" t="s">
         <v>107</v>
       </c>
@@ -7415,7 +7434,7 @@
         <v>PER3_12x85-------------------</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="2" t="s">
         <v>277</v>
       </c>
@@ -7428,7 +7447,7 @@
         <v>12x8E</v>
       </c>
     </row>
-    <row r="99" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="2" t="s">
         <v>71</v>
       </c>
@@ -7437,7 +7456,7 @@
         <v>PER3_12x8-------------------</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="2" t="s">
         <v>278</v>
       </c>
@@ -7450,7 +7469,7 @@
         <v>12x9</v>
       </c>
     </row>
-    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="2" t="s">
         <v>186</v>
       </c>
@@ -7459,7 +7478,7 @@
         <v>PER3_12x9-------------------</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="2" t="s">
         <v>279</v>
       </c>
@@ -7472,7 +7491,7 @@
         <v>134x135-3</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="2" t="s">
         <v>280</v>
       </c>
@@ -7485,7 +7504,7 @@
         <v>135x10</v>
       </c>
     </row>
-    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="2" t="s">
         <v>122</v>
       </c>
@@ -7494,7 +7513,7 @@
         <v>PER3_135x115-------------------</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="2" t="s">
         <v>281</v>
       </c>
@@ -7507,7 +7526,7 @@
         <v>135x125</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="2" t="s">
         <v>282</v>
       </c>
@@ -7520,7 +7539,7 @@
         <v>135x133</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="2" t="s">
         <v>283</v>
       </c>
@@ -7533,7 +7552,7 @@
         <v>135x135</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="2" t="s">
         <v>284</v>
       </c>
@@ -7546,7 +7565,7 @@
         <v>135x14</v>
       </c>
     </row>
-    <row r="109" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="2" t="s">
         <v>187</v>
       </c>
@@ -7555,7 +7574,7 @@
         <v>PER3_135x14-------------------</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="2" t="s">
         <v>285</v>
       </c>
@@ -7568,7 +7587,7 @@
         <v>135x9</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="2" t="s">
         <v>286</v>
       </c>
@@ -7581,7 +7600,7 @@
         <v>138x10-4</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="2" t="s">
         <v>287</v>
       </c>
@@ -7594,7 +7613,7 @@
         <v>13x10</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="2" t="s">
         <v>288</v>
       </c>
@@ -7607,7 +7626,7 @@
         <v>13x10E</v>
       </c>
     </row>
-    <row r="114" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="2" t="s">
         <v>108</v>
       </c>
@@ -7616,7 +7635,7 @@
         <v>PER3_13x10-------------------</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="2" t="s">
         <v>289</v>
       </c>
@@ -7629,7 +7648,7 @@
         <v>13x11</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="2" t="s">
         <v>290</v>
       </c>
@@ -7642,7 +7661,7 @@
         <v>13x13-4</v>
       </c>
     </row>
-    <row r="117" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="2" t="s">
         <v>123</v>
       </c>
@@ -7651,7 +7670,7 @@
         <v>PER3_13x135-------------------</v>
       </c>
     </row>
-    <row r="118" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="2" t="s">
         <v>124</v>
       </c>
@@ -7660,7 +7679,7 @@
         <v>PER3_13x13-------------------</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="2" t="s">
         <v>291</v>
       </c>
@@ -7673,7 +7692,7 @@
         <v>13x14</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="2" t="s">
         <v>292</v>
       </c>
@@ -7686,7 +7705,7 @@
         <v>13x4</v>
       </c>
     </row>
-    <row r="121" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="2" t="s">
         <v>96</v>
       </c>
@@ -7695,7 +7714,7 @@
         <v>PER3_13x45-------------------</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="2" t="s">
         <v>293</v>
       </c>
@@ -7708,7 +7727,7 @@
         <v>13x45EP</v>
       </c>
     </row>
-    <row r="123" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="2" t="s">
         <v>96</v>
       </c>
@@ -7717,7 +7736,7 @@
         <v>PER3_13x45-------------------</v>
       </c>
     </row>
-    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="2" t="s">
         <v>72</v>
       </c>
@@ -7726,7 +7745,7 @@
         <v>PER3_13x47-------------------</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="2" t="s">
         <v>294</v>
       </c>
@@ -7739,7 +7758,7 @@
         <v>13x4E</v>
       </c>
     </row>
-    <row r="126" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="2" t="s">
         <v>188</v>
       </c>
@@ -7748,7 +7767,7 @@
         <v>PER3_13x4-------------------</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="2" t="s">
         <v>295</v>
       </c>
@@ -7761,7 +7780,7 @@
         <v>13x55E</v>
       </c>
     </row>
-    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="2" t="s">
         <v>97</v>
       </c>
@@ -7770,7 +7789,7 @@
         <v>PER3_13x55-------------------</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="2" t="s">
         <v>296</v>
       </c>
@@ -7783,7 +7802,7 @@
         <v>13x6</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="2" t="s">
         <v>297</v>
       </c>
@@ -7796,7 +7815,7 @@
         <v>13x65E(F2B)</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="2" t="s">
         <v>298</v>
       </c>
@@ -7809,7 +7828,7 @@
         <v>13x65E</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="2" t="s">
         <v>299</v>
       </c>
@@ -7822,7 +7841,7 @@
         <v>13x7</v>
       </c>
     </row>
-    <row r="133" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="2" t="s">
         <v>109</v>
       </c>
@@ -7831,7 +7850,7 @@
         <v>PER3_13x7-------------------</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="2" t="s">
         <v>300</v>
       </c>
@@ -7844,7 +7863,7 @@
         <v>13x8</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="2" t="s">
         <v>301</v>
       </c>
@@ -7857,7 +7876,7 @@
         <v>13x8E</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="2" t="s">
         <v>302</v>
       </c>
@@ -7870,7 +7889,7 @@
         <v>13x9</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="2" t="s">
         <v>303</v>
       </c>
@@ -7883,7 +7902,7 @@
         <v>144x105</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="2" t="s">
         <v>304</v>
       </c>
@@ -7896,7 +7915,7 @@
         <v>144x12</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="2" t="s">
         <v>305</v>
       </c>
@@ -7909,7 +7928,7 @@
         <v>144x13</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="2" t="s">
         <v>306</v>
       </c>
@@ -7922,7 +7941,7 @@
         <v>144x135</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="2" t="s">
         <v>307</v>
       </c>
@@ -7935,7 +7954,7 @@
         <v>144x14</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="2" t="s">
         <v>308</v>
       </c>
@@ -7948,7 +7967,7 @@
         <v>145x11-4</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="2" t="s">
         <v>309</v>
       </c>
@@ -7961,7 +7980,7 @@
         <v>145x12-4</v>
       </c>
     </row>
-    <row r="144" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="2" t="s">
         <v>189</v>
       </c>
@@ -7970,7 +7989,7 @@
         <v>PER3_145x13-------------------</v>
       </c>
     </row>
-    <row r="145" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="2" t="s">
         <v>125</v>
       </c>
@@ -7979,7 +7998,7 @@
         <v>PER3_145x145-------------------</v>
       </c>
     </row>
-    <row r="146" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="2" t="s">
         <v>126</v>
       </c>
@@ -7988,7 +8007,7 @@
         <v>PER3_145x14-------------------</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="2" t="s">
         <v>310</v>
       </c>
@@ -8001,7 +8020,7 @@
         <v>14x10</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="2" t="s">
         <v>311</v>
       </c>
@@ -8014,7 +8033,7 @@
         <v>14x10E</v>
       </c>
     </row>
-    <row r="149" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="2" t="s">
         <v>110</v>
       </c>
@@ -8023,7 +8042,7 @@
         <v>PER3_14x10-------------------</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="2" t="s">
         <v>312</v>
       </c>
@@ -8036,7 +8055,7 @@
         <v>14x11</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="2" t="s">
         <v>313</v>
       </c>
@@ -8049,7 +8068,7 @@
         <v>14x12</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="2" t="s">
         <v>314</v>
       </c>
@@ -8062,7 +8081,7 @@
         <v>14x12E</v>
       </c>
     </row>
-    <row r="153" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="2" t="s">
         <v>127</v>
       </c>
@@ -8071,7 +8090,7 @@
         <v>PER3_14x12-------------------</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="2" t="s">
         <v>315</v>
       </c>
@@ -8084,7 +8103,7 @@
         <v>14x13</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="2" t="s">
         <v>316</v>
       </c>
@@ -8097,7 +8116,7 @@
         <v>14x135</v>
       </c>
     </row>
-    <row r="156" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="2" t="s">
         <v>128</v>
       </c>
@@ -8106,7 +8125,7 @@
         <v>PER3_14x135-------------------</v>
       </c>
     </row>
-    <row r="157" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="2" t="s">
         <v>129</v>
       </c>
@@ -8115,7 +8134,7 @@
         <v>PER3_14x13-------------------</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="2" t="s">
         <v>317</v>
       </c>
@@ -8128,7 +8147,7 @@
         <v>14x14</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="2" t="s">
         <v>318</v>
       </c>
@@ -8141,7 +8160,7 @@
         <v>14x14E</v>
       </c>
     </row>
-    <row r="160" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="2" t="s">
         <v>130</v>
       </c>
@@ -8150,7 +8169,7 @@
         <v>PER3_14x14-------------------</v>
       </c>
     </row>
-    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="2" t="s">
         <v>73</v>
       </c>
@@ -8159,7 +8178,7 @@
         <v>PER3_14x47-------------------</v>
       </c>
     </row>
-    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="2" t="s">
         <v>190</v>
       </c>
@@ -8168,7 +8187,7 @@
         <v>PER3_14x4-------------------</v>
       </c>
     </row>
-    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="2" t="s">
         <v>98</v>
       </c>
@@ -8177,7 +8196,7 @@
         <v>PER3_14x55-------------------</v>
       </c>
     </row>
-    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="2" t="s">
         <v>131</v>
       </c>
@@ -8186,7 +8205,7 @@
         <v>PER3_14x5-------------------</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="2" t="s">
         <v>319</v>
       </c>
@@ -8199,7 +8218,7 @@
         <v>14x6</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="2" t="s">
         <v>320</v>
       </c>
@@ -8212,7 +8231,7 @@
         <v>14x6E</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="2" t="s">
         <v>321</v>
       </c>
@@ -8225,7 +8244,7 @@
         <v>14x7</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="2" t="s">
         <v>322</v>
       </c>
@@ -8238,7 +8257,7 @@
         <v>14x7E</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="2" t="s">
         <v>323</v>
       </c>
@@ -8251,7 +8270,7 @@
         <v>14x8</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="2" t="s">
         <v>324</v>
       </c>
@@ -8264,7 +8283,7 @@
         <v>14x85E</v>
       </c>
     </row>
-    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="2" t="s">
         <v>191</v>
       </c>
@@ -8273,7 +8292,7 @@
         <v>PER3_155x115-------------------</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="2" t="s">
         <v>325</v>
       </c>
@@ -8286,7 +8305,7 @@
         <v>155x12-4</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="2" t="s">
         <v>326</v>
       </c>
@@ -8299,7 +8318,7 @@
         <v>155x12</v>
       </c>
     </row>
-    <row r="174" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="2" t="s">
         <v>192</v>
       </c>
@@ -8308,7 +8327,7 @@
         <v>PER3_155x125-------------------</v>
       </c>
     </row>
-    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="2" t="s">
         <v>193</v>
       </c>
@@ -8317,7 +8336,7 @@
         <v>PER3_155x12-------------------</v>
       </c>
     </row>
-    <row r="176" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="2" t="s">
         <v>132</v>
       </c>
@@ -8326,7 +8345,7 @@
         <v>PER3_155x13-------------------</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="2" t="s">
         <v>327</v>
       </c>
@@ -8339,7 +8358,7 @@
         <v>1575x13-3</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="2" t="s">
         <v>328</v>
       </c>
@@ -8352,7 +8371,7 @@
         <v>15x10</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="2" t="s">
         <v>329</v>
       </c>
@@ -8365,7 +8384,7 @@
         <v>15x10E</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="2" t="s">
         <v>330</v>
       </c>
@@ -8378,7 +8397,7 @@
         <v>15x11-4</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="2" t="s">
         <v>331</v>
       </c>
@@ -8391,7 +8410,7 @@
         <v>15x11</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="2" t="s">
         <v>332</v>
       </c>
@@ -8404,7 +8423,7 @@
         <v>15x12</v>
       </c>
     </row>
-    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="2" t="s">
         <v>111</v>
       </c>
@@ -8413,7 +8432,7 @@
         <v>PER3_15x12-------------------</v>
       </c>
     </row>
-    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="2" t="s">
         <v>111</v>
       </c>
@@ -8422,7 +8441,7 @@
         <v>PER3_15x12-------------------</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="2" t="s">
         <v>333</v>
       </c>
@@ -8435,7 +8454,7 @@
         <v>15x13</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="2" t="s">
         <v>334</v>
       </c>
@@ -8448,7 +8467,7 @@
         <v>15x135-3</v>
       </c>
     </row>
-    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="2" t="s">
         <v>133</v>
       </c>
@@ -8457,7 +8476,7 @@
         <v>PER3_15x13-------------------</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="2" t="s">
         <v>335</v>
       </c>
@@ -8470,7 +8489,7 @@
         <v>15x13W-3</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="2" t="s">
         <v>336</v>
       </c>
@@ -8483,7 +8502,7 @@
         <v>15x14</v>
       </c>
     </row>
-    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="2" t="s">
         <v>134</v>
       </c>
@@ -8492,7 +8511,7 @@
         <v>PER3_15x14-------------------</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="2" t="s">
         <v>337</v>
       </c>
@@ -8505,7 +8524,7 @@
         <v>15x4E</v>
       </c>
     </row>
-    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="2" t="s">
         <v>194</v>
       </c>
@@ -8514,7 +8533,7 @@
         <v>PER3_15x4-------------------</v>
       </c>
     </row>
-    <row r="193" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="2" t="s">
         <v>99</v>
       </c>
@@ -8523,7 +8542,7 @@
         <v>PER3_15x55-------------------</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="2" t="s">
         <v>338</v>
       </c>
@@ -8536,7 +8555,7 @@
         <v>15x6</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="2" t="s">
         <v>339</v>
       </c>
@@ -8549,7 +8568,7 @@
         <v>15x6E</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="2" t="s">
         <v>340</v>
       </c>
@@ -8562,7 +8581,7 @@
         <v>15x7</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="2" t="s">
         <v>341</v>
       </c>
@@ -8575,7 +8594,7 @@
         <v>15x7E</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="2" t="s">
         <v>342</v>
       </c>
@@ -8588,7 +8607,7 @@
         <v>15x8</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="2" t="s">
         <v>343</v>
       </c>
@@ -8601,7 +8620,7 @@
         <v>15x8E</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="2" t="s">
         <v>344</v>
       </c>
@@ -8614,7 +8633,7 @@
         <v>165x12</v>
       </c>
     </row>
-    <row r="201" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="2" t="s">
         <v>195</v>
       </c>
@@ -8623,7 +8642,7 @@
         <v>PER3_165x12-------------------</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="2" t="s">
         <v>345</v>
       </c>
@@ -8636,7 +8655,7 @@
         <v>165x13</v>
       </c>
     </row>
-    <row r="203" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="2" t="s">
         <v>196</v>
       </c>
@@ -8645,7 +8664,7 @@
         <v>PER3_165x13-------------------</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="2" t="s">
         <v>346</v>
       </c>
@@ -8658,7 +8677,7 @@
         <v>165x14</v>
       </c>
     </row>
-    <row r="205" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="2" t="s">
         <v>197</v>
       </c>
@@ -8667,7 +8686,7 @@
         <v>PER3_165x5-------------------</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="2" t="s">
         <v>347</v>
       </c>
@@ -8680,7 +8699,7 @@
         <v>16x10</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="2" t="s">
         <v>348</v>
       </c>
@@ -8693,7 +8712,7 @@
         <v>16x10E</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="2" t="s">
         <v>349</v>
       </c>
@@ -8706,7 +8725,7 @@
         <v>16x11</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="2" t="s">
         <v>350</v>
       </c>
@@ -8719,7 +8738,7 @@
         <v>16x12</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="2" t="s">
         <v>351</v>
       </c>
@@ -8732,7 +8751,7 @@
         <v>16x12E</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="2" t="s">
         <v>352</v>
       </c>
@@ -8745,7 +8764,7 @@
         <v>16x13</v>
       </c>
     </row>
-    <row r="212" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="2" t="s">
         <v>135</v>
       </c>
@@ -8754,7 +8773,7 @@
         <v>PER3_16x13-------------------</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="2" t="s">
         <v>353</v>
       </c>
@@ -8767,7 +8786,7 @@
         <v>16x14</v>
       </c>
     </row>
-    <row r="214" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="2" t="s">
         <v>136</v>
       </c>
@@ -8776,7 +8795,7 @@
         <v>PER3_16x14-------------------</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="2" t="s">
         <v>354</v>
       </c>
@@ -8789,7 +8808,7 @@
         <v>16x15</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="2" t="s">
         <v>355</v>
       </c>
@@ -8802,7 +8821,7 @@
         <v>16x16</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="2" t="s">
         <v>356</v>
       </c>
@@ -8815,7 +8834,7 @@
         <v>16x4E</v>
       </c>
     </row>
-    <row r="218" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="2" t="s">
         <v>198</v>
       </c>
@@ -8824,7 +8843,7 @@
         <v>PER3_16x4-------------------</v>
       </c>
     </row>
-    <row r="219" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="2" t="s">
         <v>100</v>
       </c>
@@ -8833,7 +8852,7 @@
         <v>PER3_16x55-------------------</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="2" t="s">
         <v>357</v>
       </c>
@@ -8846,7 +8865,7 @@
         <v>16x6</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="2" t="s">
         <v>358</v>
       </c>
@@ -8859,7 +8878,7 @@
         <v>16x6E</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="2" t="s">
         <v>359</v>
       </c>
@@ -8872,7 +8891,7 @@
         <v>16x7</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="2" t="s">
         <v>360</v>
       </c>
@@ -8885,7 +8904,7 @@
         <v>16x7E(3D)</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="2" t="s">
         <v>361</v>
       </c>
@@ -8898,7 +8917,7 @@
         <v>16x8</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="2" t="s">
         <v>362</v>
       </c>
@@ -8911,7 +8930,7 @@
         <v>16x8E</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="2" t="s">
         <v>363</v>
       </c>
@@ -8924,7 +8943,7 @@
         <v>175x18</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="2" t="s">
         <v>364</v>
       </c>
@@ -8937,7 +8956,7 @@
         <v>17x10</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="2" t="s">
         <v>365</v>
       </c>
@@ -8950,7 +8969,7 @@
         <v>17x10E</v>
       </c>
     </row>
-    <row r="229" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="2" t="s">
         <v>52</v>
       </c>
@@ -8959,7 +8978,7 @@
         <v>PER3_17x10-------------------</v>
       </c>
     </row>
-    <row r="230" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="2" t="s">
         <v>52</v>
       </c>
@@ -8968,7 +8987,7 @@
         <v>PER3_17x10-------------------</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" s="2" t="s">
         <v>366</v>
       </c>
@@ -8981,7 +9000,7 @@
         <v>17x12</v>
       </c>
     </row>
-    <row r="232" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B232" s="2" t="s">
         <v>137</v>
       </c>
@@ -8990,7 +9009,7 @@
         <v>PER3_17x125-------------------</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B233" s="2" t="s">
         <v>367</v>
       </c>
@@ -9003,7 +9022,7 @@
         <v>17x1275</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B234" s="2" t="s">
         <v>368</v>
       </c>
@@ -9016,7 +9035,7 @@
         <v>17x12E</v>
       </c>
     </row>
-    <row r="235" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B235" s="2" t="s">
         <v>138</v>
       </c>
@@ -9025,7 +9044,7 @@
         <v>PER3_17x12-------------------</v>
       </c>
     </row>
-    <row r="236" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B236" s="2" t="s">
         <v>138</v>
       </c>
@@ -9034,7 +9053,7 @@
         <v>PER3_17x12-------------------</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B237" s="2" t="s">
         <v>369</v>
       </c>
@@ -9047,7 +9066,7 @@
         <v>17x13</v>
       </c>
     </row>
-    <row r="238" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B238" s="2" t="s">
         <v>139</v>
       </c>
@@ -9056,7 +9075,7 @@
         <v>PER3_17x13-------------------</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B239" s="2" t="s">
         <v>370</v>
       </c>
@@ -9069,7 +9088,7 @@
         <v>17x18</v>
       </c>
     </row>
-    <row r="240" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B240" s="2" t="s">
         <v>199</v>
       </c>
@@ -9078,7 +9097,7 @@
         <v>PER3_17x4-------------------</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B241" s="2" t="s">
         <v>371</v>
       </c>
@@ -9091,7 +9110,7 @@
         <v>17x6</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B242" s="2" t="s">
         <v>372</v>
       </c>
@@ -9104,7 +9123,7 @@
         <v>17x6E</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B243" s="2" t="s">
         <v>373</v>
       </c>
@@ -9117,7 +9136,7 @@
         <v>17x7E</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B244" s="2" t="s">
         <v>374</v>
       </c>
@@ -9130,7 +9149,7 @@
         <v>17x8</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B245" s="2" t="s">
         <v>375</v>
       </c>
@@ -9143,7 +9162,7 @@
         <v>17x8E</v>
       </c>
     </row>
-    <row r="246" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B246" s="2" t="s">
         <v>140</v>
       </c>
@@ -9152,7 +9171,7 @@
         <v>PER3_17x8-------------------</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B247" s="2" t="s">
         <v>376</v>
       </c>
@@ -9165,7 +9184,7 @@
         <v>181x10</v>
       </c>
     </row>
-    <row r="248" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B248" s="2" t="s">
         <v>200</v>
       </c>
@@ -9174,7 +9193,7 @@
         <v>PER3_181x10-------------------</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B249" s="2" t="s">
         <v>377</v>
       </c>
@@ -9187,7 +9206,7 @@
         <v>181x11</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B250" s="2" t="s">
         <v>378</v>
       </c>
@@ -9200,7 +9219,7 @@
         <v>181x12</v>
       </c>
     </row>
-    <row r="251" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B251" s="2" t="s">
         <v>141</v>
       </c>
@@ -9209,7 +9228,7 @@
         <v>PER3_185x1025WP-------------------</v>
       </c>
     </row>
-    <row r="252" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B252" s="2" t="s">
         <v>142</v>
       </c>
@@ -9218,7 +9237,7 @@
         <v>PER3_185x12WP-------------------</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B253" s="2" t="s">
         <v>379</v>
       </c>
@@ -9231,7 +9250,7 @@
         <v>185x95</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B254" s="2" t="s">
         <v>380</v>
       </c>
@@ -9244,7 +9263,7 @@
         <v>18x10</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B255" s="2" t="s">
         <v>381</v>
       </c>
@@ -9257,7 +9276,7 @@
         <v>18x10E</v>
       </c>
     </row>
-    <row r="256" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B256" s="2" t="s">
         <v>143</v>
       </c>
@@ -9266,7 +9285,7 @@
         <v>PER3_18x10P-------------------</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B257" s="2" t="s">
         <v>382</v>
       </c>
@@ -9279,7 +9298,7 @@
         <v>18x11</v>
       </c>
     </row>
-    <row r="258" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B258" s="2" t="s">
         <v>144</v>
       </c>
@@ -9288,7 +9307,7 @@
         <v>PER3_18x11WP-------------------</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B259" s="2" t="s">
         <v>383</v>
       </c>
@@ -9301,7 +9320,7 @@
         <v>18x12</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B260" s="2" t="s">
         <v>384</v>
       </c>
@@ -9314,7 +9333,7 @@
         <v>18x12E</v>
       </c>
     </row>
-    <row r="261" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B261" s="2" t="s">
         <v>53</v>
       </c>
@@ -9323,7 +9342,7 @@
         <v>PER3_18x12-------------------</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B262" s="2" t="s">
         <v>385</v>
       </c>
@@ -9336,7 +9355,7 @@
         <v>18x14</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B263" s="2" t="s">
         <v>386</v>
       </c>
@@ -9349,7 +9368,7 @@
         <v>18x16</v>
       </c>
     </row>
-    <row r="264" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B264" s="2" t="s">
         <v>101</v>
       </c>
@@ -9358,7 +9377,7 @@
         <v>PER3_18x55-------------------</v>
       </c>
     </row>
-    <row r="265" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B265" s="2" t="s">
         <v>201</v>
       </c>
@@ -9367,7 +9386,7 @@
         <v>PER3_18x6-------------------</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B266" s="2" t="s">
         <v>387</v>
       </c>
@@ -9380,7 +9399,7 @@
         <v>18x8</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B267" s="2" t="s">
         <v>388</v>
       </c>
@@ -9393,7 +9412,7 @@
         <v>18x8E</v>
       </c>
     </row>
-    <row r="268" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B268" s="2" t="s">
         <v>202</v>
       </c>
@@ -9402,7 +9421,7 @@
         <v>PER3_18x8-------------------</v>
       </c>
     </row>
-    <row r="269" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B269" s="2" t="s">
         <v>145</v>
       </c>
@@ -9411,7 +9430,7 @@
         <v>PER3_195x115P-------------------</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B270" s="2" t="s">
         <v>389</v>
       </c>
@@ -9424,7 +9443,7 @@
         <v>19x10E</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B271" s="2" t="s">
         <v>390</v>
       </c>
@@ -9437,7 +9456,7 @@
         <v>19x11</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B272" s="2" t="s">
         <v>391</v>
       </c>
@@ -9450,7 +9469,7 @@
         <v>19x12E</v>
       </c>
     </row>
-    <row r="273" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B273" s="2" t="s">
         <v>54</v>
       </c>
@@ -9459,7 +9478,7 @@
         <v>PER3_19x12-------------------</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B274" s="2" t="s">
         <v>392</v>
       </c>
@@ -9472,7 +9491,7 @@
         <v>19x14</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B275" s="2" t="s">
         <v>393</v>
       </c>
@@ -9485,7 +9504,7 @@
         <v>19x16</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B276" s="2" t="s">
         <v>394</v>
       </c>
@@ -9498,7 +9517,7 @@
         <v>19x8E</v>
       </c>
     </row>
-    <row r="277" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B277" s="2" t="s">
         <v>203</v>
       </c>
@@ -9507,7 +9526,7 @@
         <v>PER3_19x8-------------------</v>
       </c>
     </row>
-    <row r="278" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B278" s="2" t="s">
         <v>146</v>
       </c>
@@ -9516,7 +9535,7 @@
         <v>PER3_205x105P-------------------</v>
       </c>
     </row>
-    <row r="279" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B279" s="2" t="s">
         <v>147</v>
       </c>
@@ -9525,7 +9544,7 @@
         <v>PER3_205x105WP-------------------</v>
       </c>
     </row>
-    <row r="280" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B280" s="2" t="s">
         <v>148</v>
       </c>
@@ -9534,7 +9553,7 @@
         <v>PER3_205x10P-------------------</v>
       </c>
     </row>
-    <row r="281" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B281" s="2" t="s">
         <v>55</v>
       </c>
@@ -9543,7 +9562,7 @@
         <v>PER3_205x12-------------------</v>
       </c>
     </row>
-    <row r="282" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B282" s="2" t="s">
         <v>149</v>
       </c>
@@ -9552,7 +9571,7 @@
         <v>PER3_205x135EP-------------------</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B283" s="2" t="s">
         <v>395</v>
       </c>
@@ -9565,7 +9584,7 @@
         <v>205x14E</v>
       </c>
     </row>
-    <row r="284" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B284" s="2" t="s">
         <v>150</v>
       </c>
@@ -9574,7 +9593,7 @@
         <v>PER3_205x14EP-------------------</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B285" s="2" t="s">
         <v>396</v>
       </c>
@@ -9587,7 +9606,7 @@
         <v>205x205E(CD)</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B286" s="2" t="s">
         <v>397</v>
       </c>
@@ -9600,7 +9619,7 @@
         <v>20x10</v>
       </c>
     </row>
-    <row r="287" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B287" s="2" t="s">
         <v>151</v>
       </c>
@@ -9609,7 +9628,7 @@
         <v>PER3_20x105P-------------------</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B288" s="2" t="s">
         <v>398</v>
       </c>
@@ -9622,7 +9641,7 @@
         <v>20x10E</v>
       </c>
     </row>
-    <row r="289" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B289" s="2" t="s">
         <v>152</v>
       </c>
@@ -9631,7 +9650,7 @@
         <v>PER3_20x10P-------------------</v>
       </c>
     </row>
-    <row r="290" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B290" s="2" t="s">
         <v>204</v>
       </c>
@@ -9640,7 +9659,7 @@
         <v>PER3_20x10-------------------</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B291" s="2" t="s">
         <v>399</v>
       </c>
@@ -9653,7 +9672,7 @@
         <v>20x11E</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B292" s="2" t="s">
         <v>400</v>
       </c>
@@ -9666,7 +9685,7 @@
         <v>20x12</v>
       </c>
     </row>
-    <row r="293" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B293" s="2" t="s">
         <v>56</v>
       </c>
@@ -9675,7 +9694,7 @@
         <v>PER3_20x12-------------------</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B294" s="2" t="s">
         <v>401</v>
       </c>
@@ -9688,7 +9707,7 @@
         <v>20x13E</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B295" s="2" t="s">
         <v>402</v>
       </c>
@@ -9701,7 +9720,7 @@
         <v>20x14</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B296" s="2" t="s">
         <v>403</v>
       </c>
@@ -9714,7 +9733,7 @@
         <v>20x15(WCAR-T6)</v>
       </c>
     </row>
-    <row r="297" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B297" s="2" t="s">
         <v>211</v>
       </c>
@@ -9723,7 +9742,7 @@
         <v>PER3_20x15-------------------</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B298" s="2" t="s">
         <v>404</v>
       </c>
@@ -9736,7 +9755,7 @@
         <v>20x15E</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B299" s="2" t="s">
         <v>405</v>
       </c>
@@ -9749,7 +9768,7 @@
         <v>20x16</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B300" s="2" t="s">
         <v>406</v>
       </c>
@@ -9762,7 +9781,7 @@
         <v>20x18(F1-GT)</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B301" s="2" t="s">
         <v>407</v>
       </c>
@@ -9775,7 +9794,7 @@
         <v>20x18</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B302" s="2" t="s">
         <v>408</v>
       </c>
@@ -9788,7 +9807,7 @@
         <v>20x225EP(CD)</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B303" s="2" t="s">
         <v>409</v>
       </c>
@@ -9801,7 +9820,7 @@
         <v>20x8</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B304" s="2" t="s">
         <v>410</v>
       </c>
@@ -9814,7 +9833,7 @@
         <v>20x8E</v>
       </c>
     </row>
-    <row r="305" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B305" s="2" t="s">
         <v>205</v>
       </c>
@@ -9823,7 +9842,7 @@
         <v>PER3_20x8-------------------</v>
       </c>
     </row>
-    <row r="306" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B306" s="2" t="s">
         <v>153</v>
       </c>
@@ -9832,7 +9851,7 @@
         <v>PER3_215x13EP-------------------</v>
       </c>
     </row>
-    <row r="307" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B307" s="2" t="s">
         <v>154</v>
       </c>
@@ -9841,7 +9860,7 @@
         <v>PER3_215x10WP-------------------</v>
       </c>
     </row>
-    <row r="308" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B308" s="2" t="s">
         <v>155</v>
       </c>
@@ -9850,7 +9869,7 @@
         <v>PER3_215x105P-------------------</v>
       </c>
     </row>
-    <row r="309" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B309" s="2" t="s">
         <v>156</v>
       </c>
@@ -9859,7 +9878,7 @@
         <v>PER3_21x105P-------------------</v>
       </c>
     </row>
-    <row r="310" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B310" s="2" t="s">
         <v>157</v>
       </c>
@@ -9868,7 +9887,7 @@
         <v>PER3_21x10P-------------------</v>
       </c>
     </row>
-    <row r="311" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B311" s="2" t="s">
         <v>206</v>
       </c>
@@ -9877,7 +9896,7 @@
         <v>PER3_21x10-------------------</v>
       </c>
     </row>
-    <row r="312" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B312" s="2" t="s">
         <v>158</v>
       </c>
@@ -9886,7 +9905,7 @@
         <v>PER3_21x10WP-------------------</v>
       </c>
     </row>
-    <row r="313" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B313" s="2" t="s">
         <v>57</v>
       </c>
@@ -9895,7 +9914,7 @@
         <v>PER3_21x12-------------------</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B314" s="2" t="s">
         <v>411</v>
       </c>
@@ -9908,7 +9927,7 @@
         <v>21x135E</v>
       </c>
     </row>
-    <row r="315" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B315" s="2" t="s">
         <v>159</v>
       </c>
@@ -9917,7 +9936,7 @@
         <v>PER3_21x135EP-------------------</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B316" s="2" t="s">
         <v>412</v>
       </c>
@@ -9930,7 +9949,7 @@
         <v>21x13E</v>
       </c>
     </row>
-    <row r="317" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B317" s="2" t="s">
         <v>58</v>
       </c>
@@ -9939,7 +9958,7 @@
         <v>PER3_21x13-------------------</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B318" s="2" t="s">
         <v>413</v>
       </c>
@@ -9952,7 +9971,7 @@
         <v>22x10</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B319" s="2" t="s">
         <v>414</v>
       </c>
@@ -9965,7 +9984,7 @@
         <v>22x10E</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B320" s="2" t="s">
         <v>415</v>
       </c>
@@ -9978,7 +9997,7 @@
         <v>22x11E</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B321" s="2" t="s">
         <v>416</v>
       </c>
@@ -9991,7 +10010,7 @@
         <v>22x12E</v>
       </c>
     </row>
-    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B322" s="2" t="s">
         <v>59</v>
       </c>
@@ -10000,7 +10019,7 @@
         <v>PER3_22x12-------------------</v>
       </c>
     </row>
-    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B323" s="2" t="s">
         <v>160</v>
       </c>
@@ -10009,7 +10028,7 @@
         <v>PER3_22x13EP-------------------</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B324" s="2" t="s">
         <v>417</v>
       </c>
@@ -10022,7 +10041,7 @@
         <v>22x8</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B325" s="2" t="s">
         <v>418</v>
       </c>
@@ -10035,7 +10054,7 @@
         <v>24x12E</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B326" s="2" t="s">
         <v>419</v>
       </c>
@@ -10048,7 +10067,7 @@
         <v>25x125E</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B327" s="2" t="s">
         <v>420</v>
       </c>
@@ -10061,7 +10080,7 @@
         <v>26x13E</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B328" s="2" t="s">
         <v>421</v>
       </c>
@@ -10074,7 +10093,7 @@
         <v>26x15E</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B329" s="2" t="s">
         <v>422</v>
       </c>
@@ -10087,7 +10106,7 @@
         <v>27x13E</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B330" s="2" t="s">
         <v>423</v>
       </c>
@@ -10100,7 +10119,7 @@
         <v>28x20-4</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B331" s="2" t="s">
         <v>424</v>
       </c>
@@ -10113,7 +10132,7 @@
         <v>41x41E</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" s="2" t="s">
         <v>425</v>
       </c>
@@ -10126,7 +10145,7 @@
         <v>42x2</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" s="2" t="s">
         <v>426</v>
       </c>
@@ -10139,7 +10158,7 @@
         <v>42x4</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" s="2" t="s">
         <v>427</v>
       </c>
@@ -10152,7 +10171,7 @@
         <v>44x4</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" s="2" t="s">
         <v>428</v>
       </c>
@@ -10165,7 +10184,7 @@
         <v>45x35</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" s="2" t="s">
         <v>429</v>
       </c>
@@ -10178,7 +10197,7 @@
         <v>45x4</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" s="2" t="s">
         <v>430</v>
       </c>
@@ -10191,7 +10210,7 @@
         <v>45x41E</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" s="2" t="s">
         <v>431</v>
       </c>
@@ -10204,7 +10223,7 @@
         <v>46x3</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" s="2" t="s">
         <v>432</v>
       </c>
@@ -10217,7 +10236,7 @@
         <v>475x4</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B340" s="2" t="s">
         <v>433</v>
       </c>
@@ -10230,7 +10249,7 @@
         <v>475x45E</v>
       </c>
     </row>
-    <row r="341" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B341" s="2" t="s">
         <v>212</v>
       </c>
@@ -10239,7 +10258,7 @@
         <v>PER3_475x45E-------------------</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B342" s="2" t="s">
         <v>434</v>
       </c>
@@ -10252,7 +10271,7 @@
         <v>475x475E</v>
       </c>
     </row>
-    <row r="343" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" s="2" t="s">
         <v>213</v>
       </c>
@@ -10261,7 +10280,7 @@
         <v>PER3_475x475E-------------------</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B344" s="2" t="s">
         <v>435</v>
       </c>
@@ -10274,7 +10293,7 @@
         <v>475x55E</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B345" s="2" t="s">
         <v>436</v>
       </c>
@@ -10287,7 +10306,7 @@
         <v>47x42E</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" s="2" t="s">
         <v>437</v>
       </c>
@@ -10300,7 +10319,7 @@
         <v>4x33E</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B347" s="2" t="s">
         <v>438</v>
       </c>
@@ -10313,7 +10332,7 @@
         <v>4x45E</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B348" s="2" t="s">
         <v>439</v>
       </c>
@@ -10326,7 +10345,7 @@
         <v>4x4E-3</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B349" s="2" t="s">
         <v>440</v>
       </c>
@@ -10339,7 +10358,7 @@
         <v>51x45E</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B350" s="2" t="s">
         <v>441</v>
       </c>
@@ -10352,7 +10371,7 @@
         <v>51x50E</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B351" s="2" t="s">
         <v>442</v>
       </c>
@@ -10365,7 +10384,7 @@
         <v>51x50E-3</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" s="2" t="s">
         <v>443</v>
       </c>
@@ -10378,7 +10397,7 @@
         <v>52x60E</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" s="2" t="s">
         <v>444</v>
       </c>
@@ -10391,7 +10410,7 @@
         <v>525x475E</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B354" s="2" t="s">
         <v>445</v>
       </c>
@@ -10404,7 +10423,7 @@
         <v>525x55E</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B355" s="2" t="s">
         <v>446</v>
       </c>
@@ -10417,7 +10436,7 @@
         <v>525x625E</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B356" s="2" t="s">
         <v>447</v>
       </c>
@@ -10430,7 +10449,7 @@
         <v>55x2</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B357" s="2" t="s">
         <v>448</v>
       </c>
@@ -10443,7 +10462,7 @@
         <v>55x25</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B358" s="2" t="s">
         <v>449</v>
       </c>
@@ -10456,7 +10475,7 @@
         <v>55x45E</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B359" s="2" t="s">
         <v>450</v>
       </c>
@@ -10469,7 +10488,7 @@
         <v>55x47E</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B360" s="2" t="s">
         <v>451</v>
       </c>
@@ -10482,7 +10501,7 @@
         <v>55x65E</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B361" s="2" t="s">
         <v>452</v>
       </c>
@@ -10495,7 +10514,7 @@
         <v>57x3</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B362" s="2" t="s">
         <v>453</v>
       </c>
@@ -10508,7 +10527,7 @@
         <v>5x3</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B363" s="2" t="s">
         <v>454</v>
       </c>
@@ -10521,7 +10540,7 @@
         <v>5x3E</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B364" s="2" t="s">
         <v>455</v>
       </c>
@@ -10534,7 +10553,7 @@
         <v>5x37E-3</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B365" s="2" t="s">
         <v>456</v>
       </c>
@@ -10547,7 +10566,7 @@
         <v>5x43E</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B366" s="2" t="s">
         <v>457</v>
       </c>
@@ -10560,7 +10579,7 @@
         <v>5x45E</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B367" s="2" t="s">
         <v>458</v>
       </c>
@@ -10573,7 +10592,7 @@
         <v>5x46E</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B368" s="2" t="s">
         <v>459</v>
       </c>
@@ -10586,7 +10605,7 @@
         <v>5x4E-3</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B369" s="2" t="s">
         <v>460</v>
       </c>
@@ -10599,7 +10618,7 @@
         <v>5x4E-4</v>
       </c>
     </row>
-    <row r="370" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B370" s="2" t="s">
         <v>223</v>
       </c>
@@ -10608,7 +10627,7 @@
         <v>PER3_5x4-------------------</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B371" s="2" t="s">
         <v>461</v>
       </c>
@@ -10621,7 +10640,7 @@
         <v>5x5E</v>
       </c>
     </row>
-    <row r="372" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B372" s="2" t="s">
         <v>112</v>
       </c>
@@ -10630,7 +10649,7 @@
         <v>PER3_5x5-------------------</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B373" s="2" t="s">
         <v>462</v>
       </c>
@@ -10643,7 +10662,7 @@
         <v>5x75E</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B374" s="2" t="s">
         <v>463</v>
       </c>
@@ -10656,7 +10675,7 @@
         <v>63x4</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B375" s="2" t="s">
         <v>464</v>
       </c>
@@ -10669,7 +10688,7 @@
         <v>65x29</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B376" s="2" t="s">
         <v>465</v>
       </c>
@@ -10682,7 +10701,7 @@
         <v>65x37</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B377" s="2" t="s">
         <v>466</v>
       </c>
@@ -10695,7 +10714,7 @@
         <v>65x50</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B378" s="2" t="s">
         <v>467</v>
       </c>
@@ -10708,7 +10727,7 @@
         <v>65x55</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B379" s="2" t="s">
         <v>468</v>
       </c>
@@ -10721,7 +10740,7 @@
         <v>65x60</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B380" s="2" t="s">
         <v>469</v>
       </c>
@@ -10734,7 +10753,7 @@
         <v>65x65</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B381" s="2" t="s">
         <v>470</v>
       </c>
@@ -10747,7 +10766,7 @@
         <v>65x70</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B382" s="2" t="s">
         <v>471</v>
       </c>
@@ -10760,7 +10779,7 @@
         <v>6x2</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B383" s="2" t="s">
         <v>472</v>
       </c>
@@ -10773,7 +10792,7 @@
         <v>6x3</v>
       </c>
     </row>
-    <row r="384" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B384" s="2" t="s">
         <v>113</v>
       </c>
@@ -10782,7 +10801,7 @@
         <v>PER3_6x3-------------------</v>
       </c>
     </row>
-    <row r="385" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B385" s="2" t="s">
         <v>113</v>
       </c>
@@ -10791,7 +10810,7 @@
         <v>PER3_6x3-------------------</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B386" s="2" t="s">
         <v>473</v>
       </c>
@@ -10804,7 +10823,7 @@
         <v>6x4</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B387" s="2" t="s">
         <v>474</v>
       </c>
@@ -10817,7 +10836,7 @@
         <v>6x42E-3</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B388" s="2" t="s">
         <v>475</v>
       </c>
@@ -10830,7 +10849,7 @@
         <v>6x43E</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B389" s="2" t="s">
         <v>476</v>
       </c>
@@ -10843,7 +10862,7 @@
         <v>6x45E</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B390" s="2" t="s">
         <v>477</v>
       </c>
@@ -10856,7 +10875,7 @@
         <v>6x4E</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B391" s="2" t="s">
         <v>478</v>
       </c>
@@ -10869,7 +10888,7 @@
         <v>6x5</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B392" s="2" t="s">
         <v>479</v>
       </c>
@@ -10882,7 +10901,7 @@
         <v>6x55E</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B393" s="2" t="s">
         <v>480</v>
       </c>
@@ -10895,7 +10914,7 @@
         <v>6x6E</v>
       </c>
     </row>
-    <row r="394" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B394" s="2" t="s">
         <v>214</v>
       </c>
@@ -10904,7 +10923,7 @@
         <v>PER3_74x75-------------------</v>
       </c>
     </row>
-    <row r="395" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B395" s="2" t="s">
         <v>215</v>
       </c>
@@ -10913,7 +10932,7 @@
         <v>PER3_74x76-------------------</v>
       </c>
     </row>
-    <row r="396" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B396" s="2" t="s">
         <v>216</v>
       </c>
@@ -10922,7 +10941,7 @@
         <v>PER3_74x77-------------------</v>
       </c>
     </row>
-    <row r="397" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B397" s="2" t="s">
         <v>217</v>
       </c>
@@ -10931,7 +10950,7 @@
         <v>PER3_74x78-------------------</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B398" s="2" t="s">
         <v>481</v>
       </c>
@@ -10944,7 +10963,7 @@
         <v>75x25</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B399" s="2" t="s">
         <v>482</v>
       </c>
@@ -10957,7 +10976,7 @@
         <v>78x4</v>
       </c>
     </row>
-    <row r="400" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B400" s="2" t="s">
         <v>218</v>
       </c>
@@ -10966,7 +10985,7 @@
         <v>PER3_78x4-------------------</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B401" s="2" t="s">
         <v>483</v>
       </c>
@@ -10979,7 +10998,7 @@
         <v>78x6</v>
       </c>
     </row>
-    <row r="402" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B402" s="2" t="s">
         <v>219</v>
       </c>
@@ -10988,7 +11007,7 @@
         <v>PER3_78x6-------------------</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B403" s="2" t="s">
         <v>484</v>
       </c>
@@ -11001,7 +11020,7 @@
         <v>78x7</v>
       </c>
     </row>
-    <row r="404" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B404" s="2" t="s">
         <v>220</v>
       </c>
@@ -11010,7 +11029,7 @@
         <v>PER3_78x7-------------------</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B405" s="2" t="s">
         <v>485</v>
       </c>
@@ -11023,7 +11042,7 @@
         <v>7x10</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B406" s="2" t="s">
         <v>486</v>
       </c>
@@ -11036,7 +11055,7 @@
         <v>7x3</v>
       </c>
     </row>
-    <row r="407" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B407" s="2" t="s">
         <v>74</v>
       </c>
@@ -11045,7 +11064,7 @@
         <v>PER3_7x38W-------------------</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B408" s="2" t="s">
         <v>487</v>
       </c>
@@ -11058,7 +11077,7 @@
         <v>7x4</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B409" s="2" t="s">
         <v>488</v>
       </c>
@@ -11071,7 +11090,7 @@
         <v>7x4E</v>
       </c>
     </row>
-    <row r="410" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B410" s="2" t="s">
         <v>75</v>
       </c>
@@ -11080,7 +11099,7 @@
         <v>PER3_7x4-------------------</v>
       </c>
     </row>
-    <row r="411" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B411" s="2" t="s">
         <v>75</v>
       </c>
@@ -11089,7 +11108,7 @@
         <v>PER3_7x4-------------------</v>
       </c>
     </row>
-    <row r="412" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B412" s="2" t="s">
         <v>76</v>
       </c>
@@ -11098,7 +11117,7 @@
         <v>PER3_7x41-------------------</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B413" s="2" t="s">
         <v>489</v>
       </c>
@@ -11111,7 +11130,7 @@
         <v>7x5</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B414" s="2" t="s">
         <v>490</v>
       </c>
@@ -11124,7 +11143,7 @@
         <v>7x5E</v>
       </c>
     </row>
-    <row r="415" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B415" s="2" t="s">
         <v>77</v>
       </c>
@@ -11133,7 +11152,7 @@
         <v>PER3_7x5-------------------</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B416" s="2" t="s">
         <v>491</v>
       </c>
@@ -11146,7 +11165,7 @@
         <v>7x6</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B417" s="2" t="s">
         <v>492</v>
       </c>
@@ -11159,7 +11178,7 @@
         <v>7x65D</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B418" s="2" t="s">
         <v>493</v>
       </c>
@@ -11172,7 +11191,7 @@
         <v>7x6E</v>
       </c>
     </row>
-    <row r="419" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B419" s="2" t="s">
         <v>78</v>
       </c>
@@ -11181,7 +11200,7 @@
         <v>PER3_7x6-------------------</v>
       </c>
     </row>
-    <row r="420" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B420" s="2" t="s">
         <v>78</v>
       </c>
@@ -11190,7 +11209,7 @@
         <v>PER3_7x6-------------------</v>
       </c>
     </row>
-    <row r="421" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B421" s="2" t="s">
         <v>78</v>
       </c>
@@ -11199,7 +11218,7 @@
         <v>PER3_7x6-------------------</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B422" s="2" t="s">
         <v>494</v>
       </c>
@@ -11212,7 +11231,7 @@
         <v>7x7</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B423" s="2" t="s">
         <v>495</v>
       </c>
@@ -11225,7 +11244,7 @@
         <v>7x7E</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B424" s="2" t="s">
         <v>496</v>
       </c>
@@ -11238,7 +11257,7 @@
         <v>7x8</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B425" s="2" t="s">
         <v>497</v>
       </c>
@@ -11251,7 +11270,7 @@
         <v>7x9</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B426" s="2" t="s">
         <v>498</v>
       </c>
@@ -11264,7 +11283,7 @@
         <v>85x55</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B427" s="2" t="s">
         <v>499</v>
       </c>
@@ -11277,7 +11296,7 @@
         <v>85x70</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B428" s="2" t="s">
         <v>500</v>
       </c>
@@ -11290,7 +11309,7 @@
         <v>85x725</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B429" s="2" t="s">
         <v>501</v>
       </c>
@@ -11303,7 +11322,7 @@
         <v>85x75</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B430" s="2" t="s">
         <v>502</v>
       </c>
@@ -11316,7 +11335,7 @@
         <v>8625x375</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B431" s="2" t="s">
         <v>503</v>
       </c>
@@ -11329,7 +11348,7 @@
         <v>875x50</v>
       </c>
     </row>
-    <row r="432" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B432" s="2" t="s">
         <v>161</v>
       </c>
@@ -11338,7 +11357,7 @@
         <v>PER3_875x70-------------------</v>
       </c>
     </row>
-    <row r="433" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B433" s="2" t="s">
         <v>162</v>
       </c>
@@ -11347,7 +11366,7 @@
         <v>PER3_875x70N-------------------</v>
       </c>
     </row>
-    <row r="434" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B434" s="2" t="s">
         <v>163</v>
       </c>
@@ -11356,7 +11375,7 @@
         <v>PER3_875x75-------------------</v>
       </c>
     </row>
-    <row r="435" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B435" s="2" t="s">
         <v>164</v>
       </c>
@@ -11365,7 +11384,7 @@
         <v>PER3_875x75N-------------------</v>
       </c>
     </row>
-    <row r="436" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B436" s="2" t="s">
         <v>163</v>
       </c>
@@ -11374,7 +11393,7 @@
         <v>PER3_875x75-------------------</v>
       </c>
     </row>
-    <row r="437" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B437" s="2" t="s">
         <v>165</v>
       </c>
@@ -11383,7 +11402,7 @@
         <v>PER3_875x775-------------------</v>
       </c>
     </row>
-    <row r="438" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B438" s="2" t="s">
         <v>166</v>
       </c>
@@ -11392,7 +11411,7 @@
         <v>PER3_875x775N-------------------</v>
       </c>
     </row>
-    <row r="439" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B439" s="2" t="s">
         <v>165</v>
       </c>
@@ -11401,7 +11420,7 @@
         <v>PER3_875x775-------------------</v>
       </c>
     </row>
-    <row r="440" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B440" s="2" t="s">
         <v>167</v>
       </c>
@@ -11410,7 +11429,7 @@
         <v>PER3_875x80-------------------</v>
       </c>
     </row>
-    <row r="441" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B441" s="2" t="s">
         <v>168</v>
       </c>
@@ -11419,7 +11438,7 @@
         <v>PER3_875x80N-------------------</v>
       </c>
     </row>
-    <row r="442" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B442" s="2" t="s">
         <v>167</v>
       </c>
@@ -11428,7 +11447,7 @@
         <v>PER3_875x80-------------------</v>
       </c>
     </row>
-    <row r="443" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B443" s="2" t="s">
         <v>169</v>
       </c>
@@ -11437,7 +11456,7 @@
         <v>PER3_875x825-------------------</v>
       </c>
     </row>
-    <row r="444" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B444" s="2" t="s">
         <v>170</v>
       </c>
@@ -11446,7 +11465,7 @@
         <v>PER3_875x825N-------------------</v>
       </c>
     </row>
-    <row r="445" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B445" s="2" t="s">
         <v>169</v>
       </c>
@@ -11455,7 +11474,7 @@
         <v>PER3_875x825-------------------</v>
       </c>
     </row>
-    <row r="446" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B446" s="2" t="s">
         <v>171</v>
       </c>
@@ -11464,7 +11483,7 @@
         <v>PER3_875x85-------------------</v>
       </c>
     </row>
-    <row r="447" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B447" s="2" t="s">
         <v>172</v>
       </c>
@@ -11473,7 +11492,7 @@
         <v>PER3_875x85N-------------------</v>
       </c>
     </row>
-    <row r="448" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B448" s="2" t="s">
         <v>171</v>
       </c>
@@ -11482,7 +11501,7 @@
         <v>PER3_875x85-------------------</v>
       </c>
     </row>
-    <row r="449" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B449" s="2" t="s">
         <v>173</v>
       </c>
@@ -11491,7 +11510,7 @@
         <v>PER3_875x875N-------------------</v>
       </c>
     </row>
-    <row r="450" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B450" s="2" t="s">
         <v>207</v>
       </c>
@@ -11500,7 +11519,7 @@
         <v>PER3_875x875-------------------</v>
       </c>
     </row>
-    <row r="451" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B451" s="2" t="s">
         <v>174</v>
       </c>
@@ -11509,7 +11528,7 @@
         <v>PER3_875x90N-------------------</v>
       </c>
     </row>
-    <row r="452" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B452" s="2" t="s">
         <v>208</v>
       </c>
@@ -11518,7 +11537,7 @@
         <v>PER3_875x90-------------------</v>
       </c>
     </row>
-    <row r="453" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B453" s="2" t="s">
         <v>175</v>
       </c>
@@ -11527,7 +11546,7 @@
         <v>PER3_875x925N-------------------</v>
       </c>
     </row>
-    <row r="454" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B454" s="2" t="s">
         <v>209</v>
       </c>
@@ -11536,7 +11555,7 @@
         <v>PER3_875x925-------------------</v>
       </c>
     </row>
-    <row r="455" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B455" s="2" t="s">
         <v>176</v>
       </c>
@@ -11545,7 +11564,7 @@
         <v>PER3_875x95N-------------------</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B456" s="2" t="s">
         <v>504</v>
       </c>
@@ -11558,7 +11577,7 @@
         <v>88x85</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B457" s="2" t="s">
         <v>505</v>
       </c>
@@ -11571,7 +11590,7 @@
         <v>88x875</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B458" s="2" t="s">
         <v>506</v>
       </c>
@@ -11584,7 +11603,7 @@
         <v>88x89</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B459" s="2" t="s">
         <v>507</v>
       </c>
@@ -11597,7 +11616,7 @@
         <v>88x90</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B460" s="2" t="s">
         <v>508</v>
       </c>
@@ -11610,7 +11629,7 @@
         <v>88x925</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B461" s="2" t="s">
         <v>509</v>
       </c>
@@ -11623,7 +11642,7 @@
         <v>88x95</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B462" s="2" t="s">
         <v>510</v>
       </c>
@@ -11636,7 +11655,7 @@
         <v>88x975</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B463" s="2" t="s">
         <v>511</v>
       </c>
@@ -11649,7 +11668,7 @@
         <v>8x10</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B464" s="2" t="s">
         <v>512</v>
       </c>
@@ -11662,7 +11681,7 @@
         <v>8x375</v>
       </c>
     </row>
-    <row r="465" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B465" s="2" t="s">
         <v>210</v>
       </c>
@@ -11671,7 +11690,7 @@
         <v>PER3_8x375-------------------</v>
       </c>
     </row>
-    <row r="466" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B466" s="2" t="s">
         <v>79</v>
       </c>
@@ -11680,7 +11699,7 @@
         <v>PER3_8x38-------------------</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B467" s="2" t="s">
         <v>513</v>
       </c>
@@ -11693,7 +11712,7 @@
         <v>8x4</v>
       </c>
     </row>
-    <row r="468" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B468" s="2" t="s">
         <v>80</v>
       </c>
@@ -11702,7 +11721,7 @@
         <v>PER3_8x41-------------------</v>
       </c>
     </row>
-    <row r="469" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B469" s="2" t="s">
         <v>221</v>
       </c>
@@ -11711,7 +11730,7 @@
         <v>PER3_8x42-------------------</v>
       </c>
     </row>
-    <row r="470" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B470" s="2" t="s">
         <v>102</v>
       </c>
@@ -11720,7 +11739,7 @@
         <v>PER3_8x45-------------------</v>
       </c>
     </row>
-    <row r="471" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B471" s="2" t="s">
         <v>81</v>
       </c>
@@ -11729,7 +11748,7 @@
         <v>PER3_8x47-------------------</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B472" s="2" t="s">
         <v>514</v>
       </c>
@@ -11742,7 +11761,7 @@
         <v>8x4E</v>
       </c>
     </row>
-    <row r="473" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B473" s="2" t="s">
         <v>114</v>
       </c>
@@ -11751,7 +11770,7 @@
         <v>PER3_8x4-------------------</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B474" s="2" t="s">
         <v>515</v>
       </c>
@@ -11764,7 +11783,7 @@
         <v>8x5</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B475" s="2" t="s">
         <v>516</v>
       </c>
@@ -11777,7 +11796,7 @@
         <v>8x6</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B476" s="2" t="s">
         <v>517</v>
       </c>
@@ -11790,7 +11809,7 @@
         <v>8x6E</v>
       </c>
     </row>
-    <row r="477" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B477" s="2" t="s">
         <v>82</v>
       </c>
@@ -11799,7 +11818,7 @@
         <v>PER3_8x6-------------------</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B478" s="2" t="s">
         <v>518</v>
       </c>
@@ -11812,7 +11831,7 @@
         <v>8x7</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B479" s="2" t="s">
         <v>519</v>
       </c>
@@ -11825,7 +11844,7 @@
         <v>8x73</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B480" s="2" t="s">
         <v>520</v>
       </c>
@@ -11838,7 +11857,7 @@
         <v>8x8</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B481" s="2" t="s">
         <v>521</v>
       </c>
@@ -11851,7 +11870,7 @@
         <v>8x8E</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B482" s="2" t="s">
         <v>522</v>
       </c>
@@ -11864,7 +11883,7 @@
         <v>8x9</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B483" s="2" t="s">
         <v>523</v>
       </c>
@@ -11877,7 +11896,7 @@
         <v>925x50</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B484" s="2" t="s">
         <v>524</v>
       </c>
@@ -11890,7 +11909,7 @@
         <v>925x525</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B485" s="2" t="s">
         <v>525</v>
       </c>
@@ -11903,7 +11922,7 @@
         <v>925x55</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B486" s="2" t="s">
         <v>526</v>
       </c>
@@ -11916,7 +11935,7 @@
         <v>925x575</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B487" s="2" t="s">
         <v>527</v>
       </c>
@@ -11929,7 +11948,7 @@
         <v>925x60</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B488" s="2" t="s">
         <v>528</v>
       </c>
@@ -11942,7 +11961,7 @@
         <v>93x3</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B489" s="2" t="s">
         <v>529</v>
       </c>
@@ -11955,7 +11974,7 @@
         <v>95x45</v>
       </c>
     </row>
-    <row r="490" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B490" s="2" t="s">
         <v>103</v>
       </c>
@@ -11964,7 +11983,7 @@
         <v>PER3_95x5-------------------</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B491" s="2" t="s">
         <v>530</v>
       </c>
@@ -11977,7 +11996,7 @@
         <v>95x6</v>
       </c>
     </row>
-    <row r="492" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B492" s="2" t="s">
         <v>177</v>
       </c>
@@ -11986,7 +12005,7 @@
         <v>PER3_95x65-------------------</v>
       </c>
     </row>
-    <row r="493" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B493" s="2" t="s">
         <v>178</v>
       </c>
@@ -11995,7 +12014,7 @@
         <v>PER3_95x75-------------------</v>
       </c>
     </row>
-    <row r="494" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B494" s="2" t="s">
         <v>179</v>
       </c>
@@ -12004,7 +12023,7 @@
         <v>PER3_95x7-------------------</v>
       </c>
     </row>
-    <row r="495" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B495" s="2" t="s">
         <v>180</v>
       </c>
@@ -12013,7 +12032,7 @@
         <v>PER3_95x85-------------------</v>
       </c>
     </row>
-    <row r="496" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B496" s="2" t="s">
         <v>181</v>
       </c>
@@ -12022,7 +12041,7 @@
         <v>PER3_95x8-------------------</v>
       </c>
     </row>
-    <row r="497" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B497" s="2" t="s">
         <v>182</v>
       </c>
@@ -12031,7 +12050,7 @@
         <v>PER3_9625x375-------------------</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B498" s="2" t="s">
         <v>531</v>
       </c>
@@ -12044,7 +12063,7 @@
         <v>9x10</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B499" s="2" t="s">
         <v>532</v>
       </c>
@@ -12057,7 +12076,7 @@
         <v>9x3</v>
       </c>
     </row>
-    <row r="500" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B500" s="2" t="s">
         <v>83</v>
       </c>
@@ -12066,7 +12085,7 @@
         <v>PER3_9x37-------------------</v>
       </c>
     </row>
-    <row r="501" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B501" s="2" t="s">
         <v>84</v>
       </c>
@@ -12075,7 +12094,7 @@
         <v>PER3_9x38-------------------</v>
       </c>
     </row>
-    <row r="502" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B502" s="2" t="s">
         <v>183</v>
       </c>
@@ -12084,7 +12103,7 @@
         <v>PER3_9x3-------------------</v>
       </c>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B503" s="2" t="s">
         <v>533</v>
       </c>
@@ -12097,7 +12116,7 @@
         <v>9x4</v>
       </c>
     </row>
-    <row r="504" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B504" s="2" t="s">
         <v>85</v>
       </c>
@@ -12106,7 +12125,7 @@
         <v>PER3_9x41-------------------</v>
       </c>
     </row>
-    <row r="505" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B505" s="2" t="s">
         <v>222</v>
       </c>
@@ -12115,7 +12134,7 @@
         <v>PER3_9x44-------------------</v>
       </c>
     </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B506" s="2" t="s">
         <v>534</v>
       </c>
@@ -12128,7 +12147,7 @@
         <v>9x45E</v>
       </c>
     </row>
-    <row r="507" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B507" s="2" t="s">
         <v>104</v>
       </c>
@@ -12137,7 +12156,7 @@
         <v>PER3_9x45-------------------</v>
       </c>
     </row>
-    <row r="508" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B508" s="2" t="s">
         <v>104</v>
       </c>
@@ -12146,7 +12165,7 @@
         <v>PER3_9x45-------------------</v>
       </c>
     </row>
-    <row r="509" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B509" s="2" t="s">
         <v>104</v>
       </c>
@@ -12155,7 +12174,7 @@
         <v>PER3_9x45-------------------</v>
       </c>
     </row>
-    <row r="510" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B510" s="2" t="s">
         <v>86</v>
       </c>
@@ -12164,7 +12183,7 @@
         <v>PER3_9x46-------------------</v>
       </c>
     </row>
-    <row r="511" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B511" s="2" t="s">
         <v>87</v>
       </c>
@@ -12173,7 +12192,7 @@
         <v>PER3_9x47-------------------</v>
       </c>
     </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B512" s="2" t="s">
         <v>535</v>
       </c>
@@ -12186,7 +12205,7 @@
         <v>9x5</v>
       </c>
     </row>
-    <row r="513" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B513" s="2" t="s">
         <v>115</v>
       </c>
@@ -12195,7 +12214,7 @@
         <v>PER3_9x5-------------------</v>
       </c>
     </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B514" s="2" t="s">
         <v>536</v>
       </c>
@@ -12208,7 +12227,7 @@
         <v>9x6-3</v>
       </c>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B515" s="2" t="s">
         <v>537</v>
       </c>
@@ -12221,7 +12240,7 @@
         <v>9x6-4</v>
       </c>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B516" s="2" t="s">
         <v>538</v>
       </c>
@@ -12234,7 +12253,7 @@
         <v>9x6</v>
       </c>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B517" s="2" t="s">
         <v>539</v>
       </c>
@@ -12247,7 +12266,7 @@
         <v>9x65</v>
       </c>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B518" s="2" t="s">
         <v>540</v>
       </c>
@@ -12260,7 +12279,7 @@
         <v>9x6E</v>
       </c>
     </row>
-    <row r="519" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B519" s="2" t="s">
         <v>88</v>
       </c>
@@ -12269,7 +12288,7 @@
         <v>PER3_9x6-------------------</v>
       </c>
     </row>
-    <row r="520" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B520" s="2" t="s">
         <v>88</v>
       </c>
@@ -12278,7 +12297,7 @@
         <v>PER3_9x6-------------------</v>
       </c>
     </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B521" s="2" t="s">
         <v>541</v>
       </c>
@@ -12291,7 +12310,7 @@
         <v>9x7</v>
       </c>
     </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B522" s="2" t="s">
         <v>542</v>
       </c>
@@ -12304,7 +12323,7 @@
         <v>9x75</v>
       </c>
     </row>
-    <row r="523" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B523" s="2" t="s">
         <v>89</v>
       </c>
@@ -12313,7 +12332,7 @@
         <v>PER3_9x75-------------------</v>
       </c>
     </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B524" s="2" t="s">
         <v>543</v>
       </c>
@@ -12326,7 +12345,7 @@
         <v>9x75E</v>
       </c>
     </row>
-    <row r="525" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B525" s="2" t="s">
         <v>89</v>
       </c>
@@ -12335,7 +12354,7 @@
         <v>PER3_9x75-------------------</v>
       </c>
     </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B526" s="2" t="s">
         <v>544</v>
       </c>
@@ -12348,7 +12367,7 @@
         <v>9x8</v>
       </c>
     </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B527" s="2" t="s">
         <v>545</v>
       </c>
@@ -12361,7 +12380,7 @@
         <v>9x8E-3</v>
       </c>
     </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B528" s="2" t="s">
         <v>546</v>
       </c>
@@ -12374,7 +12393,7 @@
         <v>9x85</v>
       </c>
     </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B529" s="2" t="s">
         <v>547</v>
       </c>
@@ -12387,7 +12406,7 @@
         <v>9x9</v>
       </c>
     </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B530" s="2" t="s">
         <v>548</v>
       </c>
@@ -12945,18 +12964,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13171,6 +13190,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F5A92BF-BBD4-4993-91F8-F1E5270D6F44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6514510D-DD2E-424E-B096-3D2CD529FA05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -13183,14 +13210,6 @@
     <ds:schemaRef ds:uri="5db44a93-5590-4792-9555-bb98fd9f9407"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F5A92BF-BBD4-4993-91F8-F1E5270D6F44}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DBF list of propeller data needed.xlsx
+++ b/DBF list of propeller data needed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\dbf-propulsions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe1ca5d0fde44768/Documents/UCSD/dbf-propulsions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E943B15F-E422-4B3F-94F3-7542D5B34A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E943B15F-E422-4B3F-94F3-7542D5B34A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9017F026-EF63-46D6-84E6-5F231E5BC7D9}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{F8984420-C341-4625-B6D8-E59D36BCB41E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8984420-C341-4625-B6D8-E59D36BCB41E}"/>
   </bookViews>
   <sheets>
     <sheet name="NEED" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="864">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3062,17 +3062,17 @@
   <dimension ref="A1:H338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.20703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.68359375" customWidth="1"/>
-    <col min="5" max="5" width="20.89453125" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3135,11 +3135,14 @@
       <c r="C5" s="4" t="s">
         <v>552</v>
       </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
       <c r="E5" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -3149,11 +3152,14 @@
       <c r="C6" s="2" t="s">
         <v>553</v>
       </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -3330,7 +3336,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>617</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -3473,7 +3479,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -3539,7 +3545,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>578</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>579</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>580</v>
       </c>
@@ -3585,7 +3591,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>581</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>582</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>583</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>584</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>585</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>586</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>587</v>
       </c>
@@ -3641,7 +3647,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>21</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>588</v>
       </c>
@@ -3657,7 +3663,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>589</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>590</v>
       </c>
@@ -3673,7 +3679,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>591</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>592</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>593</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>594</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>595</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>596</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>597</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>598</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>599</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>22</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>23</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>600</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>601</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>602</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>603</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>604</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>605</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>606</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>607</v>
       </c>
@@ -3825,7 +3831,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>608</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>609</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>24</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>25</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>610</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>611</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>26</v>
       </c>
@@ -3881,7 +3887,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>612</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>613</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>614</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>615</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>616</v>
       </c>
@@ -3921,7 +3927,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>617</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>27</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>28</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>29</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>30</v>
       </c>
@@ -3961,7 +3967,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>618</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>619</v>
       </c>
@@ -3977,7 +3983,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>620</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>621</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>622</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>623</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>624</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>625</v>
       </c>
@@ -4025,7 +4031,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>31</v>
       </c>
@@ -4033,7 +4039,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>626</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>627</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>628</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>629</v>
       </c>
@@ -4065,7 +4071,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>630</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>631</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>632</v>
       </c>
@@ -4089,7 +4095,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>633</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>634</v>
       </c>
@@ -4105,7 +4111,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>32</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>33</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>635</v>
       </c>
@@ -4129,7 +4135,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>34</v>
       </c>
@@ -4137,7 +4143,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>636</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>637</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>638</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>639</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>640</v>
       </c>
@@ -4177,7 +4183,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>641</v>
       </c>
@@ -4185,7 +4191,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>642</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>643</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>644</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>645</v>
       </c>
@@ -4217,7 +4223,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>646</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>647</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>648</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>649</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>650</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>651</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>652</v>
       </c>
@@ -4273,7 +4279,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
         <v>35</v>
       </c>
@@ -4281,7 +4287,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>653</v>
       </c>
@@ -4289,7 +4295,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>654</v>
       </c>
@@ -4297,7 +4303,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>655</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>656</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>657</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>658</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>659</v>
       </c>
@@ -4337,7 +4343,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>660</v>
       </c>
@@ -4345,7 +4351,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>661</v>
       </c>
@@ -4353,7 +4359,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>662</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>663</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>664</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>665</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>666</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>667</v>
       </c>
@@ -4401,7 +4407,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>668</v>
       </c>
@@ -4409,7 +4415,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>669</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>670</v>
       </c>
@@ -4425,7 +4431,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>671</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>672</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>673</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>674</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>675</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>676</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>677</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>678</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>679</v>
       </c>
@@ -4497,7 +4503,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>680</v>
       </c>
@@ -4505,7 +4511,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>681</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>682</v>
       </c>
@@ -4521,7 +4527,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>683</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>684</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>685</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>686</v>
       </c>
@@ -4553,7 +4559,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>687</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>688</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>689</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>690</v>
       </c>
@@ -4585,7 +4591,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>691</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>692</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>693</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>694</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>695</v>
       </c>
@@ -4625,7 +4631,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>696</v>
       </c>
@@ -4633,7 +4639,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>697</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>698</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>699</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>700</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>701</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>702</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>703</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>704</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>705</v>
       </c>
@@ -4705,7 +4711,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>706</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>707</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>708</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>709</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>710</v>
       </c>
@@ -4745,7 +4751,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>711</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>712</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>713</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>714</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>715</v>
       </c>
@@ -4785,7 +4791,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>716</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>717</v>
       </c>
@@ -4801,7 +4807,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>718</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>719</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>720</v>
       </c>
@@ -4825,7 +4831,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>721</v>
       </c>
@@ -4833,7 +4839,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>722</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>723</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>724</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>725</v>
       </c>
@@ -4865,7 +4871,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>726</v>
       </c>
@@ -4873,7 +4879,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>727</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>728</v>
       </c>
@@ -4889,7 +4895,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>729</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>730</v>
       </c>
@@ -4905,7 +4911,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>731</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>732</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>733</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>734</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>735</v>
       </c>
@@ -4945,7 +4951,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>736</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>737</v>
       </c>
@@ -4961,7 +4967,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>738</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>739</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>740</v>
       </c>
@@ -4985,7 +4991,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>741</v>
       </c>
@@ -4993,7 +4999,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>742</v>
       </c>
@@ -5001,7 +5007,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>743</v>
       </c>
@@ -5009,7 +5015,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>744</v>
       </c>
@@ -5017,7 +5023,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>745</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>746</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>747</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>748</v>
       </c>
@@ -5049,7 +5055,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>749</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>750</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>751</v>
       </c>
@@ -5073,7 +5079,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>752</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>753</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>754</v>
       </c>
@@ -5097,7 +5103,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>755</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>756</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>757</v>
       </c>
@@ -5121,7 +5127,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>758</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>759</v>
       </c>
@@ -5137,7 +5143,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>760</v>
       </c>
@@ -5145,7 +5151,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>761</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>762</v>
       </c>
@@ -5161,7 +5167,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>763</v>
       </c>
@@ -5169,7 +5175,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>764</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>765</v>
       </c>
@@ -5185,7 +5191,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>766</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>767</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>768</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>769</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>770</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>771</v>
       </c>
@@ -5233,7 +5239,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>772</v>
       </c>
@@ -5241,7 +5247,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>773</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>774</v>
       </c>
@@ -5257,7 +5263,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>775</v>
       </c>
@@ -5265,7 +5271,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>776</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>777</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>778</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>779</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>780</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>781</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>782</v>
       </c>
@@ -5321,7 +5327,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B263" s="3" t="s">
         <v>783</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>784</v>
       </c>
@@ -5337,7 +5343,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>785</v>
       </c>
@@ -5345,7 +5351,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>786</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>36</v>
       </c>
@@ -5361,7 +5367,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>787</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>788</v>
       </c>
@@ -5377,7 +5383,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>789</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>790</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>791</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>792</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>793</v>
       </c>
@@ -5417,7 +5423,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>794</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>795</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B277" s="3" t="s">
         <v>796</v>
       </c>
@@ -5441,7 +5447,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>37</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>797</v>
       </c>
@@ -5457,7 +5463,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>798</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>799</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>800</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>801</v>
       </c>
@@ -5489,7 +5495,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>802</v>
       </c>
@@ -5497,7 +5503,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>803</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>804</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>805</v>
       </c>
@@ -5521,7 +5527,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>806</v>
       </c>
@@ -5529,7 +5535,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>807</v>
       </c>
@@ -5537,7 +5543,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>808</v>
       </c>
@@ -5545,7 +5551,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>809</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>810</v>
       </c>
@@ -5561,7 +5567,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>811</v>
       </c>
@@ -5569,7 +5575,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>812</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>813</v>
       </c>
@@ -5585,7 +5591,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>814</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
         <v>815</v>
       </c>
@@ -5601,7 +5607,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>816</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>817</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>818</v>
       </c>
@@ -5625,7 +5631,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>819</v>
       </c>
@@ -5633,7 +5639,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>820</v>
       </c>
@@ -5641,7 +5647,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>821</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>822</v>
       </c>
@@ -5657,7 +5663,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>823</v>
       </c>
@@ -5665,7 +5671,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B306" s="3" t="s">
         <v>824</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>38</v>
       </c>
@@ -5681,7 +5687,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>825</v>
       </c>
@@ -5689,7 +5695,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>826</v>
       </c>
@@ -5697,7 +5703,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>827</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B311" s="3" t="s">
         <v>39</v>
       </c>
@@ -5713,7 +5719,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>828</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>829</v>
       </c>
@@ -5729,7 +5735,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>830</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>831</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>832</v>
       </c>
@@ -5753,7 +5759,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>833</v>
       </c>
@@ -5761,7 +5767,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>834</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>835</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>836</v>
       </c>
@@ -5785,7 +5791,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>837</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
         <v>838</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>839</v>
       </c>
@@ -5809,7 +5815,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>840</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>841</v>
       </c>
@@ -5825,7 +5831,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>842</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>843</v>
       </c>
@@ -5841,7 +5847,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B328" s="3" t="s">
         <v>40</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>844</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B330" s="3" t="s">
         <v>41</v>
       </c>
@@ -5865,7 +5871,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>845</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>846</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>847</v>
       </c>
@@ -5889,7 +5895,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>848</v>
       </c>
@@ -5897,7 +5903,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>849</v>
       </c>
@@ -5905,7 +5911,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>850</v>
       </c>
@@ -5913,7 +5919,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>851</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>852</v>
       </c>
@@ -6286,14 +6292,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.5234375" customWidth="1"/>
-    <col min="3" max="3" width="18.41796875" customWidth="1"/>
-    <col min="4" max="4" width="27.89453125" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>42</v>
       </c>
@@ -6304,7 +6310,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>549</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>550</v>
       </c>
@@ -6336,7 +6342,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>551</v>
       </c>
@@ -6349,7 +6355,7 @@
         <v>10x10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>552</v>
       </c>
@@ -6362,7 +6368,7 @@
         <v>10x10E</v>
       </c>
     </row>
-    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
@@ -6371,7 +6377,7 @@
         <v>PER3_10x12-------------------</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>553</v>
       </c>
@@ -6384,7 +6390,7 @@
         <v>10x3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
@@ -6393,7 +6399,7 @@
         <v>PER3_10x38-------------------</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>554</v>
       </c>
@@ -6406,7 +6412,7 @@
         <v>10x4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>90</v>
       </c>
@@ -6415,7 +6421,7 @@
         <v>PER3_10x45-------------------</v>
       </c>
     </row>
-    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
@@ -6424,7 +6430,7 @@
         <v>PER3_10x45-------------------</v>
       </c>
     </row>
-    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>PER3_10x46-------------------</v>
       </c>
     </row>
-    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
@@ -6442,7 +6448,7 @@
         <v>PER3_10x47-------------------</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>555</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>10x5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>91</v>
       </c>
@@ -6464,7 +6470,7 @@
         <v>PER3_10x55-------------------</v>
       </c>
     </row>
-    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>116</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>PER3_10x58-------------------</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>556</v>
       </c>
@@ -6486,7 +6492,7 @@
         <v>10x5E</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>557</v>
       </c>
@@ -6499,7 +6505,7 @@
         <v>10x6-4</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>558</v>
       </c>
@@ -6512,7 +6518,7 @@
         <v>10x6</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>559</v>
       </c>
@@ -6525,7 +6531,7 @@
         <v>10x6E</v>
       </c>
     </row>
-    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>105</v>
       </c>
@@ -6534,7 +6540,7 @@
         <v>PER3_10x6-------------------</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>560</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>10x7-3</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>561</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>10x7</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>562</v>
       </c>
@@ -6573,7 +6579,7 @@
         <v>10x7E</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>PER3_10x7-------------------</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>563</v>
       </c>
@@ -6595,7 +6601,7 @@
         <v>10x8</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>564</v>
       </c>
@@ -6608,7 +6614,7 @@
         <v>10x8E</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>565</v>
       </c>
@@ -6621,7 +6627,7 @@
         <v>10x9</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
@@ -6630,7 +6636,7 @@
         <v>PER3_115x125-------------------</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>229</v>
       </c>
@@ -6643,7 +6649,7 @@
         <v>115x4</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>230</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>115x6</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>231</v>
       </c>
@@ -6669,7 +6675,7 @@
         <v>11x10</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>232</v>
       </c>
@@ -6682,7 +6688,7 @@
         <v>11x10E</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>233</v>
       </c>
@@ -6695,7 +6701,7 @@
         <v>11x11</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>234</v>
       </c>
@@ -6708,7 +6714,7 @@
         <v>11x12</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>235</v>
       </c>
@@ -6721,7 +6727,7 @@
         <v>11x12E</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>184</v>
       </c>
@@ -6730,7 +6736,7 @@
         <v>PER3_11x12-------------------</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>236</v>
       </c>
@@ -6743,7 +6749,7 @@
         <v>11x13</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>237</v>
       </c>
@@ -6756,7 +6762,7 @@
         <v>11x14</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>238</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>11x3</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
@@ -6778,7 +6784,7 @@
         <v>PER3_11x38-------------------</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>239</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>11x4</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>240</v>
       </c>
@@ -6804,7 +6810,7 @@
         <v>11x45EP</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
@@ -6813,7 +6819,7 @@
         <v>PER3_11x45-------------------</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>65</v>
       </c>
@@ -6822,7 +6828,7 @@
         <v>PER3_11x46-------------------</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>66</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v>PER3_11x47-------------------</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>241</v>
       </c>
@@ -6844,7 +6850,7 @@
         <v>11x5</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>242</v>
       </c>
@@ -6857,7 +6863,7 @@
         <v>11x55E</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>93</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>PER3_11x55-------------------</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>243</v>
       </c>
@@ -6879,7 +6885,7 @@
         <v>11x6-4</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>244</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>11x6</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>245</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>11x7</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
@@ -6918,7 +6924,7 @@
         <v>11x7E</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>247</v>
       </c>
@@ -6931,7 +6937,7 @@
         <v>11x7E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>67</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>PER3_11x7-------------------</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>248</v>
       </c>
@@ -6953,7 +6959,7 @@
         <v>11x8</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>249</v>
       </c>
@@ -6966,7 +6972,7 @@
         <v>11x85E</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>250</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>11x8E</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>106</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>PER3_11x8-------------------</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>251</v>
       </c>
@@ -7001,7 +7007,7 @@
         <v>11x9-4</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>252</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>11x9</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>253</v>
       </c>
@@ -7027,7 +7033,7 @@
         <v>1225x375</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>254</v>
       </c>
@@ -7040,7 +7046,7 @@
         <v>125x10</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>255</v>
       </c>
@@ -7053,7 +7059,7 @@
         <v>125x11</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>256</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>125x115</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>257</v>
       </c>
@@ -7079,7 +7085,7 @@
         <v>125x12</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>258</v>
       </c>
@@ -7092,7 +7098,7 @@
         <v>125x125</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>259</v>
       </c>
@@ -7105,7 +7111,7 @@
         <v>125x13</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>260</v>
       </c>
@@ -7118,7 +7124,7 @@
         <v>125x6</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>261</v>
       </c>
@@ -7131,7 +7137,7 @@
         <v>125x9</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
@@ -7144,7 +7150,7 @@
         <v>12x10</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>263</v>
       </c>
@@ -7157,7 +7163,7 @@
         <v>12x10E</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>185</v>
       </c>
@@ -7166,7 +7172,7 @@
         <v>PER3_12x10-------------------</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>264</v>
       </c>
@@ -7179,7 +7185,7 @@
         <v>12x11</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>265</v>
       </c>
@@ -7192,7 +7198,7 @@
         <v>12x115</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>119</v>
       </c>
@@ -7201,7 +7207,7 @@
         <v>PER3_12x11-------------------</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>266</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>12x12</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>267</v>
       </c>
@@ -7227,7 +7233,7 @@
         <v>12x125</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>268</v>
       </c>
@@ -7240,7 +7246,7 @@
         <v>12x12E</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>120</v>
       </c>
@@ -7249,7 +7255,7 @@
         <v>PER3_12x12-------------------</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>269</v>
       </c>
@@ -7262,7 +7268,7 @@
         <v>12x13</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>121</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>PER3_12x13-------------------</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>270</v>
       </c>
@@ -7284,7 +7290,7 @@
         <v>12x14</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>68</v>
       </c>
@@ -7293,7 +7299,7 @@
         <v>PER3_12x38-------------------</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>271</v>
       </c>
@@ -7306,7 +7312,7 @@
         <v>12x4</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>94</v>
       </c>
@@ -7315,7 +7321,7 @@
         <v>PER3_12x45-------------------</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>69</v>
       </c>
@@ -7324,7 +7330,7 @@
         <v>PER3_12x47-------------------</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>272</v>
       </c>
@@ -7337,7 +7343,7 @@
         <v>12x5</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>95</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>PER3_12x55-------------------</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>273</v>
       </c>
@@ -7359,7 +7365,7 @@
         <v>12x6</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>117</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>PER3_12x65W-------------------</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>274</v>
       </c>
@@ -7381,7 +7387,7 @@
         <v>12x6E</v>
       </c>
     </row>
-    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
@@ -7390,7 +7396,7 @@
         <v>PER3_12x6-------------------</v>
       </c>
     </row>
-    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>70</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>PER3_12x6-------------------</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>275</v>
       </c>
@@ -7412,7 +7418,7 @@
         <v>12x7</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>276</v>
       </c>
@@ -7425,7 +7431,7 @@
         <v>12x8</v>
       </c>
     </row>
-    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>107</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>PER3_12x85-------------------</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>277</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>12x8E</v>
       </c>
     </row>
-    <row r="99" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>71</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>PER3_12x8-------------------</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
         <v>278</v>
       </c>
@@ -7469,7 +7475,7 @@
         <v>12x9</v>
       </c>
     </row>
-    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>186</v>
       </c>
@@ -7478,7 +7484,7 @@
         <v>PER3_12x9-------------------</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>279</v>
       </c>
@@ -7491,7 +7497,7 @@
         <v>134x135-3</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
         <v>280</v>
       </c>
@@ -7504,7 +7510,7 @@
         <v>135x10</v>
       </c>
     </row>
-    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>122</v>
       </c>
@@ -7513,7 +7519,7 @@
         <v>PER3_135x115-------------------</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>281</v>
       </c>
@@ -7526,7 +7532,7 @@
         <v>135x125</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>282</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>135x133</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
         <v>283</v>
       </c>
@@ -7552,7 +7558,7 @@
         <v>135x135</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
         <v>284</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v>135x14</v>
       </c>
     </row>
-    <row r="109" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>187</v>
       </c>
@@ -7574,7 +7580,7 @@
         <v>PER3_135x14-------------------</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>285</v>
       </c>
@@ -7587,7 +7593,7 @@
         <v>135x9</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>286</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>138x10-4</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>287</v>
       </c>
@@ -7613,7 +7619,7 @@
         <v>13x10</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>288</v>
       </c>
@@ -7626,7 +7632,7 @@
         <v>13x10E</v>
       </c>
     </row>
-    <row r="114" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
         <v>108</v>
       </c>
@@ -7635,7 +7641,7 @@
         <v>PER3_13x10-------------------</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
         <v>289</v>
       </c>
@@ -7648,7 +7654,7 @@
         <v>13x11</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
         <v>290</v>
       </c>
@@ -7661,7 +7667,7 @@
         <v>13x13-4</v>
       </c>
     </row>
-    <row r="117" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="2" t="s">
         <v>123</v>
       </c>
@@ -7670,7 +7676,7 @@
         <v>PER3_13x135-------------------</v>
       </c>
     </row>
-    <row r="118" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>124</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>PER3_13x13-------------------</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>291</v>
       </c>
@@ -7692,7 +7698,7 @@
         <v>13x14</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
         <v>292</v>
       </c>
@@ -7705,7 +7711,7 @@
         <v>13x4</v>
       </c>
     </row>
-    <row r="121" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
         <v>96</v>
       </c>
@@ -7714,7 +7720,7 @@
         <v>PER3_13x45-------------------</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>293</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>13x45EP</v>
       </c>
     </row>
-    <row r="123" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
         <v>96</v>
       </c>
@@ -7736,7 +7742,7 @@
         <v>PER3_13x45-------------------</v>
       </c>
     </row>
-    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
         <v>72</v>
       </c>
@@ -7745,7 +7751,7 @@
         <v>PER3_13x47-------------------</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
         <v>294</v>
       </c>
@@ -7758,7 +7764,7 @@
         <v>13x4E</v>
       </c>
     </row>
-    <row r="126" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
         <v>188</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>PER3_13x4-------------------</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
         <v>295</v>
       </c>
@@ -7780,7 +7786,7 @@
         <v>13x55E</v>
       </c>
     </row>
-    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
         <v>97</v>
       </c>
@@ -7789,7 +7795,7 @@
         <v>PER3_13x55-------------------</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
         <v>296</v>
       </c>
@@ -7802,7 +7808,7 @@
         <v>13x6</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
         <v>297</v>
       </c>
@@ -7815,7 +7821,7 @@
         <v>13x65E(F2B)</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="2" t="s">
         <v>298</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>13x65E</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
         <v>299</v>
       </c>
@@ -7841,7 +7847,7 @@
         <v>13x7</v>
       </c>
     </row>
-    <row r="133" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
         <v>109</v>
       </c>
@@ -7850,7 +7856,7 @@
         <v>PER3_13x7-------------------</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
         <v>300</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>13x8</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
         <v>301</v>
       </c>
@@ -7876,7 +7882,7 @@
         <v>13x8E</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>302</v>
       </c>
@@ -7889,7 +7895,7 @@
         <v>13x9</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
         <v>303</v>
       </c>
@@ -7902,7 +7908,7 @@
         <v>144x105</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
         <v>304</v>
       </c>
@@ -7915,7 +7921,7 @@
         <v>144x12</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
         <v>305</v>
       </c>
@@ -7928,7 +7934,7 @@
         <v>144x13</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
         <v>306</v>
       </c>
@@ -7941,7 +7947,7 @@
         <v>144x135</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
         <v>307</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>144x14</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
         <v>308</v>
       </c>
@@ -7967,7 +7973,7 @@
         <v>145x11-4</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
         <v>309</v>
       </c>
@@ -7980,7 +7986,7 @@
         <v>145x12-4</v>
       </c>
     </row>
-    <row r="144" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
         <v>189</v>
       </c>
@@ -7989,7 +7995,7 @@
         <v>PER3_145x13-------------------</v>
       </c>
     </row>
-    <row r="145" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="2" t="s">
         <v>125</v>
       </c>
@@ -7998,7 +8004,7 @@
         <v>PER3_145x145-------------------</v>
       </c>
     </row>
-    <row r="146" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
         <v>126</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>PER3_145x14-------------------</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" s="2" t="s">
         <v>310</v>
       </c>
@@ -8020,7 +8026,7 @@
         <v>14x10</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
         <v>311</v>
       </c>
@@ -8033,7 +8039,7 @@
         <v>14x10E</v>
       </c>
     </row>
-    <row r="149" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="2" t="s">
         <v>110</v>
       </c>
@@ -8042,7 +8048,7 @@
         <v>PER3_14x10-------------------</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
         <v>312</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>14x11</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
         <v>313</v>
       </c>
@@ -8068,7 +8074,7 @@
         <v>14x12</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" s="2" t="s">
         <v>314</v>
       </c>
@@ -8081,7 +8087,7 @@
         <v>14x12E</v>
       </c>
     </row>
-    <row r="153" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="2" t="s">
         <v>127</v>
       </c>
@@ -8090,7 +8096,7 @@
         <v>PER3_14x12-------------------</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>315</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>14x13</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
         <v>316</v>
       </c>
@@ -8116,7 +8122,7 @@
         <v>14x135</v>
       </c>
     </row>
-    <row r="156" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
         <v>128</v>
       </c>
@@ -8125,7 +8131,7 @@
         <v>PER3_14x135-------------------</v>
       </c>
     </row>
-    <row r="157" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="2" t="s">
         <v>129</v>
       </c>
@@ -8134,7 +8140,7 @@
         <v>PER3_14x13-------------------</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
         <v>317</v>
       </c>
@@ -8147,7 +8153,7 @@
         <v>14x14</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
         <v>318</v>
       </c>
@@ -8160,7 +8166,7 @@
         <v>14x14E</v>
       </c>
     </row>
-    <row r="160" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
         <v>130</v>
       </c>
@@ -8169,7 +8175,7 @@
         <v>PER3_14x14-------------------</v>
       </c>
     </row>
-    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
         <v>73</v>
       </c>
@@ -8178,7 +8184,7 @@
         <v>PER3_14x47-------------------</v>
       </c>
     </row>
-    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
         <v>190</v>
       </c>
@@ -8187,7 +8193,7 @@
         <v>PER3_14x4-------------------</v>
       </c>
     </row>
-    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>98</v>
       </c>
@@ -8196,7 +8202,7 @@
         <v>PER3_14x55-------------------</v>
       </c>
     </row>
-    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="2" t="s">
         <v>131</v>
       </c>
@@ -8205,7 +8211,7 @@
         <v>PER3_14x5-------------------</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" s="2" t="s">
         <v>319</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>14x6</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="2" t="s">
         <v>320</v>
       </c>
@@ -8231,7 +8237,7 @@
         <v>14x6E</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" s="2" t="s">
         <v>321</v>
       </c>
@@ -8244,7 +8250,7 @@
         <v>14x7</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" s="2" t="s">
         <v>322</v>
       </c>
@@ -8257,7 +8263,7 @@
         <v>14x7E</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
         <v>323</v>
       </c>
@@ -8270,7 +8276,7 @@
         <v>14x8</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
         <v>324</v>
       </c>
@@ -8283,7 +8289,7 @@
         <v>14x85E</v>
       </c>
     </row>
-    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="2" t="s">
         <v>191</v>
       </c>
@@ -8292,7 +8298,7 @@
         <v>PER3_155x115-------------------</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="2" t="s">
         <v>325</v>
       </c>
@@ -8305,7 +8311,7 @@
         <v>155x12-4</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="2" t="s">
         <v>326</v>
       </c>
@@ -8318,7 +8324,7 @@
         <v>155x12</v>
       </c>
     </row>
-    <row r="174" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="2" t="s">
         <v>192</v>
       </c>
@@ -8327,7 +8333,7 @@
         <v>PER3_155x125-------------------</v>
       </c>
     </row>
-    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>193</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>PER3_155x12-------------------</v>
       </c>
     </row>
-    <row r="176" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
         <v>132</v>
       </c>
@@ -8345,7 +8351,7 @@
         <v>PER3_155x13-------------------</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" s="2" t="s">
         <v>327</v>
       </c>
@@ -8358,7 +8364,7 @@
         <v>1575x13-3</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
         <v>328</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>15x10</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" s="2" t="s">
         <v>329</v>
       </c>
@@ -8384,7 +8390,7 @@
         <v>15x10E</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
         <v>330</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>15x11-4</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
         <v>331</v>
       </c>
@@ -8410,7 +8416,7 @@
         <v>15x11</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
         <v>332</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>15x12</v>
       </c>
     </row>
-    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
         <v>111</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>PER3_15x12-------------------</v>
       </c>
     </row>
-    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
         <v>111</v>
       </c>
@@ -8441,7 +8447,7 @@
         <v>PER3_15x12-------------------</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185" s="2" t="s">
         <v>333</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>15x13</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" s="2" t="s">
         <v>334</v>
       </c>
@@ -8467,7 +8473,7 @@
         <v>15x135-3</v>
       </c>
     </row>
-    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
         <v>133</v>
       </c>
@@ -8476,7 +8482,7 @@
         <v>PER3_15x13-------------------</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>335</v>
       </c>
@@ -8489,7 +8495,7 @@
         <v>15x13W-3</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
         <v>336</v>
       </c>
@@ -8502,7 +8508,7 @@
         <v>15x14</v>
       </c>
     </row>
-    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="2" t="s">
         <v>134</v>
       </c>
@@ -8511,7 +8517,7 @@
         <v>PER3_15x14-------------------</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" s="2" t="s">
         <v>337</v>
       </c>
@@ -8524,7 +8530,7 @@
         <v>15x4E</v>
       </c>
     </row>
-    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="2" t="s">
         <v>194</v>
       </c>
@@ -8533,7 +8539,7 @@
         <v>PER3_15x4-------------------</v>
       </c>
     </row>
-    <row r="193" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="2" t="s">
         <v>99</v>
       </c>
@@ -8542,7 +8548,7 @@
         <v>PER3_15x55-------------------</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" s="2" t="s">
         <v>338</v>
       </c>
@@ -8555,7 +8561,7 @@
         <v>15x6</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" s="2" t="s">
         <v>339</v>
       </c>
@@ -8568,7 +8574,7 @@
         <v>15x6E</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" s="2" t="s">
         <v>340</v>
       </c>
@@ -8581,7 +8587,7 @@
         <v>15x7</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197" s="2" t="s">
         <v>341</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>15x7E</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198" s="2" t="s">
         <v>342</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>15x8</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" s="2" t="s">
         <v>343</v>
       </c>
@@ -8620,7 +8626,7 @@
         <v>15x8E</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" s="2" t="s">
         <v>344</v>
       </c>
@@ -8633,7 +8639,7 @@
         <v>165x12</v>
       </c>
     </row>
-    <row r="201" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="2" t="s">
         <v>195</v>
       </c>
@@ -8642,7 +8648,7 @@
         <v>PER3_165x12-------------------</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" s="2" t="s">
         <v>345</v>
       </c>
@@ -8655,7 +8661,7 @@
         <v>165x13</v>
       </c>
     </row>
-    <row r="203" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="2" t="s">
         <v>196</v>
       </c>
@@ -8664,7 +8670,7 @@
         <v>PER3_165x13-------------------</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" s="2" t="s">
         <v>346</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>165x14</v>
       </c>
     </row>
-    <row r="205" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="2" t="s">
         <v>197</v>
       </c>
@@ -8686,7 +8692,7 @@
         <v>PER3_165x5-------------------</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" s="2" t="s">
         <v>347</v>
       </c>
@@ -8699,7 +8705,7 @@
         <v>16x10</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" s="2" t="s">
         <v>348</v>
       </c>
@@ -8712,7 +8718,7 @@
         <v>16x10E</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" s="2" t="s">
         <v>349</v>
       </c>
@@ -8725,7 +8731,7 @@
         <v>16x11</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" s="2" t="s">
         <v>350</v>
       </c>
@@ -8738,7 +8744,7 @@
         <v>16x12</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" s="2" t="s">
         <v>351</v>
       </c>
@@ -8751,7 +8757,7 @@
         <v>16x12E</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" s="2" t="s">
         <v>352</v>
       </c>
@@ -8764,7 +8770,7 @@
         <v>16x13</v>
       </c>
     </row>
-    <row r="212" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="2" t="s">
         <v>135</v>
       </c>
@@ -8773,7 +8779,7 @@
         <v>PER3_16x13-------------------</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" s="2" t="s">
         <v>353</v>
       </c>
@@ -8786,7 +8792,7 @@
         <v>16x14</v>
       </c>
     </row>
-    <row r="214" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="2" t="s">
         <v>136</v>
       </c>
@@ -8795,7 +8801,7 @@
         <v>PER3_16x14-------------------</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" s="2" t="s">
         <v>354</v>
       </c>
@@ -8808,7 +8814,7 @@
         <v>16x15</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" s="2" t="s">
         <v>355</v>
       </c>
@@ -8821,7 +8827,7 @@
         <v>16x16</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" s="2" t="s">
         <v>356</v>
       </c>
@@ -8834,7 +8840,7 @@
         <v>16x4E</v>
       </c>
     </row>
-    <row r="218" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="2" t="s">
         <v>198</v>
       </c>
@@ -8843,7 +8849,7 @@
         <v>PER3_16x4-------------------</v>
       </c>
     </row>
-    <row r="219" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="2" t="s">
         <v>100</v>
       </c>
@@ -8852,7 +8858,7 @@
         <v>PER3_16x55-------------------</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B220" s="2" t="s">
         <v>357</v>
       </c>
@@ -8865,7 +8871,7 @@
         <v>16x6</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" s="2" t="s">
         <v>358</v>
       </c>
@@ -8878,7 +8884,7 @@
         <v>16x6E</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" s="2" t="s">
         <v>359</v>
       </c>
@@ -8891,7 +8897,7 @@
         <v>16x7</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B223" s="2" t="s">
         <v>360</v>
       </c>
@@ -8904,7 +8910,7 @@
         <v>16x7E(3D)</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" s="2" t="s">
         <v>361</v>
       </c>
@@ -8917,7 +8923,7 @@
         <v>16x8</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B225" s="2" t="s">
         <v>362</v>
       </c>
@@ -8930,7 +8936,7 @@
         <v>16x8E</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B226" s="2" t="s">
         <v>363</v>
       </c>
@@ -8943,7 +8949,7 @@
         <v>175x18</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B227" s="2" t="s">
         <v>364</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>17x10</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B228" s="2" t="s">
         <v>365</v>
       </c>
@@ -8969,7 +8975,7 @@
         <v>17x10E</v>
       </c>
     </row>
-    <row r="229" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="2" t="s">
         <v>52</v>
       </c>
@@ -8978,7 +8984,7 @@
         <v>PER3_17x10-------------------</v>
       </c>
     </row>
-    <row r="230" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="2" t="s">
         <v>52</v>
       </c>
@@ -8987,7 +8993,7 @@
         <v>PER3_17x10-------------------</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B231" s="2" t="s">
         <v>366</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>17x12</v>
       </c>
     </row>
-    <row r="232" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="2" t="s">
         <v>137</v>
       </c>
@@ -9009,7 +9015,7 @@
         <v>PER3_17x125-------------------</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B233" s="2" t="s">
         <v>367</v>
       </c>
@@ -9022,7 +9028,7 @@
         <v>17x1275</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B234" s="2" t="s">
         <v>368</v>
       </c>
@@ -9035,7 +9041,7 @@
         <v>17x12E</v>
       </c>
     </row>
-    <row r="235" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="2" t="s">
         <v>138</v>
       </c>
@@ -9044,7 +9050,7 @@
         <v>PER3_17x12-------------------</v>
       </c>
     </row>
-    <row r="236" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="2" t="s">
         <v>138</v>
       </c>
@@ -9053,7 +9059,7 @@
         <v>PER3_17x12-------------------</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B237" s="2" t="s">
         <v>369</v>
       </c>
@@ -9066,7 +9072,7 @@
         <v>17x13</v>
       </c>
     </row>
-    <row r="238" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="2" t="s">
         <v>139</v>
       </c>
@@ -9075,7 +9081,7 @@
         <v>PER3_17x13-------------------</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B239" s="2" t="s">
         <v>370</v>
       </c>
@@ -9088,7 +9094,7 @@
         <v>17x18</v>
       </c>
     </row>
-    <row r="240" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="2" t="s">
         <v>199</v>
       </c>
@@ -9097,7 +9103,7 @@
         <v>PER3_17x4-------------------</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B241" s="2" t="s">
         <v>371</v>
       </c>
@@ -9110,7 +9116,7 @@
         <v>17x6</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" s="2" t="s">
         <v>372</v>
       </c>
@@ -9123,7 +9129,7 @@
         <v>17x6E</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" s="2" t="s">
         <v>373</v>
       </c>
@@ -9136,7 +9142,7 @@
         <v>17x7E</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" s="2" t="s">
         <v>374</v>
       </c>
@@ -9149,7 +9155,7 @@
         <v>17x8</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" s="2" t="s">
         <v>375</v>
       </c>
@@ -9162,7 +9168,7 @@
         <v>17x8E</v>
       </c>
     </row>
-    <row r="246" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" s="2" t="s">
         <v>140</v>
       </c>
@@ -9171,7 +9177,7 @@
         <v>PER3_17x8-------------------</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" s="2" t="s">
         <v>376</v>
       </c>
@@ -9184,7 +9190,7 @@
         <v>181x10</v>
       </c>
     </row>
-    <row r="248" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" s="2" t="s">
         <v>200</v>
       </c>
@@ -9193,7 +9199,7 @@
         <v>PER3_181x10-------------------</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" s="2" t="s">
         <v>377</v>
       </c>
@@ -9206,7 +9212,7 @@
         <v>181x11</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B250" s="2" t="s">
         <v>378</v>
       </c>
@@ -9219,7 +9225,7 @@
         <v>181x12</v>
       </c>
     </row>
-    <row r="251" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="2" t="s">
         <v>141</v>
       </c>
@@ -9228,7 +9234,7 @@
         <v>PER3_185x1025WP-------------------</v>
       </c>
     </row>
-    <row r="252" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="2" t="s">
         <v>142</v>
       </c>
@@ -9237,7 +9243,7 @@
         <v>PER3_185x12WP-------------------</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B253" s="2" t="s">
         <v>379</v>
       </c>
@@ -9250,7 +9256,7 @@
         <v>185x95</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B254" s="2" t="s">
         <v>380</v>
       </c>
@@ -9263,7 +9269,7 @@
         <v>18x10</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B255" s="2" t="s">
         <v>381</v>
       </c>
@@ -9276,7 +9282,7 @@
         <v>18x10E</v>
       </c>
     </row>
-    <row r="256" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" s="2" t="s">
         <v>143</v>
       </c>
@@ -9285,7 +9291,7 @@
         <v>PER3_18x10P-------------------</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" s="2" t="s">
         <v>382</v>
       </c>
@@ -9298,7 +9304,7 @@
         <v>18x11</v>
       </c>
     </row>
-    <row r="258" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" s="2" t="s">
         <v>144</v>
       </c>
@@ -9307,7 +9313,7 @@
         <v>PER3_18x11WP-------------------</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="2" t="s">
         <v>383</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>18x12</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B260" s="2" t="s">
         <v>384</v>
       </c>
@@ -9333,7 +9339,7 @@
         <v>18x12E</v>
       </c>
     </row>
-    <row r="261" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" s="2" t="s">
         <v>53</v>
       </c>
@@ -9342,7 +9348,7 @@
         <v>PER3_18x12-------------------</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" s="2" t="s">
         <v>385</v>
       </c>
@@ -9355,7 +9361,7 @@
         <v>18x14</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" s="2" t="s">
         <v>386</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>18x16</v>
       </c>
     </row>
-    <row r="264" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" s="2" t="s">
         <v>101</v>
       </c>
@@ -9377,7 +9383,7 @@
         <v>PER3_18x55-------------------</v>
       </c>
     </row>
-    <row r="265" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B265" s="2" t="s">
         <v>201</v>
       </c>
@@ -9386,7 +9392,7 @@
         <v>PER3_18x6-------------------</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" s="2" t="s">
         <v>387</v>
       </c>
@@ -9399,7 +9405,7 @@
         <v>18x8</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" s="2" t="s">
         <v>388</v>
       </c>
@@ -9412,7 +9418,7 @@
         <v>18x8E</v>
       </c>
     </row>
-    <row r="268" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" s="2" t="s">
         <v>202</v>
       </c>
@@ -9421,7 +9427,7 @@
         <v>PER3_18x8-------------------</v>
       </c>
     </row>
-    <row r="269" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" s="2" t="s">
         <v>145</v>
       </c>
@@ -9430,7 +9436,7 @@
         <v>PER3_195x115P-------------------</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" s="2" t="s">
         <v>389</v>
       </c>
@@ -9443,7 +9449,7 @@
         <v>19x10E</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" s="2" t="s">
         <v>390</v>
       </c>
@@ -9456,7 +9462,7 @@
         <v>19x11</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" s="2" t="s">
         <v>391</v>
       </c>
@@ -9469,7 +9475,7 @@
         <v>19x12E</v>
       </c>
     </row>
-    <row r="273" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" s="2" t="s">
         <v>54</v>
       </c>
@@ -9478,7 +9484,7 @@
         <v>PER3_19x12-------------------</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B274" s="2" t="s">
         <v>392</v>
       </c>
@@ -9491,7 +9497,7 @@
         <v>19x14</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B275" s="2" t="s">
         <v>393</v>
       </c>
@@ -9504,7 +9510,7 @@
         <v>19x16</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B276" s="2" t="s">
         <v>394</v>
       </c>
@@ -9517,7 +9523,7 @@
         <v>19x8E</v>
       </c>
     </row>
-    <row r="277" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" s="2" t="s">
         <v>203</v>
       </c>
@@ -9526,7 +9532,7 @@
         <v>PER3_19x8-------------------</v>
       </c>
     </row>
-    <row r="278" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" s="2" t="s">
         <v>146</v>
       </c>
@@ -9535,7 +9541,7 @@
         <v>PER3_205x105P-------------------</v>
       </c>
     </row>
-    <row r="279" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B279" s="2" t="s">
         <v>147</v>
       </c>
@@ -9544,7 +9550,7 @@
         <v>PER3_205x105WP-------------------</v>
       </c>
     </row>
-    <row r="280" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B280" s="2" t="s">
         <v>148</v>
       </c>
@@ -9553,7 +9559,7 @@
         <v>PER3_205x10P-------------------</v>
       </c>
     </row>
-    <row r="281" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B281" s="2" t="s">
         <v>55</v>
       </c>
@@ -9562,7 +9568,7 @@
         <v>PER3_205x12-------------------</v>
       </c>
     </row>
-    <row r="282" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B282" s="2" t="s">
         <v>149</v>
       </c>
@@ -9571,7 +9577,7 @@
         <v>PER3_205x135EP-------------------</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B283" s="2" t="s">
         <v>395</v>
       </c>
@@ -9584,7 +9590,7 @@
         <v>205x14E</v>
       </c>
     </row>
-    <row r="284" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B284" s="2" t="s">
         <v>150</v>
       </c>
@@ -9593,7 +9599,7 @@
         <v>PER3_205x14EP-------------------</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B285" s="2" t="s">
         <v>396</v>
       </c>
@@ -9606,7 +9612,7 @@
         <v>205x205E(CD)</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B286" s="2" t="s">
         <v>397</v>
       </c>
@@ -9619,7 +9625,7 @@
         <v>20x10</v>
       </c>
     </row>
-    <row r="287" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B287" s="2" t="s">
         <v>151</v>
       </c>
@@ -9628,7 +9634,7 @@
         <v>PER3_20x105P-------------------</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B288" s="2" t="s">
         <v>398</v>
       </c>
@@ -9641,7 +9647,7 @@
         <v>20x10E</v>
       </c>
     </row>
-    <row r="289" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B289" s="2" t="s">
         <v>152</v>
       </c>
@@ -9650,7 +9656,7 @@
         <v>PER3_20x10P-------------------</v>
       </c>
     </row>
-    <row r="290" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B290" s="2" t="s">
         <v>204</v>
       </c>
@@ -9659,7 +9665,7 @@
         <v>PER3_20x10-------------------</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B291" s="2" t="s">
         <v>399</v>
       </c>
@@ -9672,7 +9678,7 @@
         <v>20x11E</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B292" s="2" t="s">
         <v>400</v>
       </c>
@@ -9685,7 +9691,7 @@
         <v>20x12</v>
       </c>
     </row>
-    <row r="293" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B293" s="2" t="s">
         <v>56</v>
       </c>
@@ -9694,7 +9700,7 @@
         <v>PER3_20x12-------------------</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B294" s="2" t="s">
         <v>401</v>
       </c>
@@ -9707,7 +9713,7 @@
         <v>20x13E</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B295" s="2" t="s">
         <v>402</v>
       </c>
@@ -9720,7 +9726,7 @@
         <v>20x14</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B296" s="2" t="s">
         <v>403</v>
       </c>
@@ -9733,7 +9739,7 @@
         <v>20x15(WCAR-T6)</v>
       </c>
     </row>
-    <row r="297" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B297" s="2" t="s">
         <v>211</v>
       </c>
@@ -9742,7 +9748,7 @@
         <v>PER3_20x15-------------------</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B298" s="2" t="s">
         <v>404</v>
       </c>
@@ -9755,7 +9761,7 @@
         <v>20x15E</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B299" s="2" t="s">
         <v>405</v>
       </c>
@@ -9768,7 +9774,7 @@
         <v>20x16</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B300" s="2" t="s">
         <v>406</v>
       </c>
@@ -9781,7 +9787,7 @@
         <v>20x18(F1-GT)</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B301" s="2" t="s">
         <v>407</v>
       </c>
@@ -9794,7 +9800,7 @@
         <v>20x18</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B302" s="2" t="s">
         <v>408</v>
       </c>
@@ -9807,7 +9813,7 @@
         <v>20x225EP(CD)</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B303" s="2" t="s">
         <v>409</v>
       </c>
@@ -9820,7 +9826,7 @@
         <v>20x8</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B304" s="2" t="s">
         <v>410</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>20x8E</v>
       </c>
     </row>
-    <row r="305" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B305" s="2" t="s">
         <v>205</v>
       </c>
@@ -9842,7 +9848,7 @@
         <v>PER3_20x8-------------------</v>
       </c>
     </row>
-    <row r="306" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B306" s="2" t="s">
         <v>153</v>
       </c>
@@ -9851,7 +9857,7 @@
         <v>PER3_215x13EP-------------------</v>
       </c>
     </row>
-    <row r="307" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B307" s="2" t="s">
         <v>154</v>
       </c>
@@ -9860,7 +9866,7 @@
         <v>PER3_215x10WP-------------------</v>
       </c>
     </row>
-    <row r="308" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B308" s="2" t="s">
         <v>155</v>
       </c>
@@ -9869,7 +9875,7 @@
         <v>PER3_215x105P-------------------</v>
       </c>
     </row>
-    <row r="309" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B309" s="2" t="s">
         <v>156</v>
       </c>
@@ -9878,7 +9884,7 @@
         <v>PER3_21x105P-------------------</v>
       </c>
     </row>
-    <row r="310" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B310" s="2" t="s">
         <v>157</v>
       </c>
@@ -9887,7 +9893,7 @@
         <v>PER3_21x10P-------------------</v>
       </c>
     </row>
-    <row r="311" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B311" s="2" t="s">
         <v>206</v>
       </c>
@@ -9896,7 +9902,7 @@
         <v>PER3_21x10-------------------</v>
       </c>
     </row>
-    <row r="312" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B312" s="2" t="s">
         <v>158</v>
       </c>
@@ -9905,7 +9911,7 @@
         <v>PER3_21x10WP-------------------</v>
       </c>
     </row>
-    <row r="313" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B313" s="2" t="s">
         <v>57</v>
       </c>
@@ -9914,7 +9920,7 @@
         <v>PER3_21x12-------------------</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B314" s="2" t="s">
         <v>411</v>
       </c>
@@ -9927,7 +9933,7 @@
         <v>21x135E</v>
       </c>
     </row>
-    <row r="315" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B315" s="2" t="s">
         <v>159</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>PER3_21x135EP-------------------</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B316" s="2" t="s">
         <v>412</v>
       </c>
@@ -9949,7 +9955,7 @@
         <v>21x13E</v>
       </c>
     </row>
-    <row r="317" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B317" s="2" t="s">
         <v>58</v>
       </c>
@@ -9958,7 +9964,7 @@
         <v>PER3_21x13-------------------</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B318" s="2" t="s">
         <v>413</v>
       </c>
@@ -9971,7 +9977,7 @@
         <v>22x10</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B319" s="2" t="s">
         <v>414</v>
       </c>
@@ -9984,7 +9990,7 @@
         <v>22x10E</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B320" s="2" t="s">
         <v>415</v>
       </c>
@@ -9997,7 +10003,7 @@
         <v>22x11E</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B321" s="2" t="s">
         <v>416</v>
       </c>
@@ -10010,7 +10016,7 @@
         <v>22x12E</v>
       </c>
     </row>
-    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B322" s="2" t="s">
         <v>59</v>
       </c>
@@ -10019,7 +10025,7 @@
         <v>PER3_22x12-------------------</v>
       </c>
     </row>
-    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B323" s="2" t="s">
         <v>160</v>
       </c>
@@ -10028,7 +10034,7 @@
         <v>PER3_22x13EP-------------------</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B324" s="2" t="s">
         <v>417</v>
       </c>
@@ -10041,7 +10047,7 @@
         <v>22x8</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B325" s="2" t="s">
         <v>418</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>24x12E</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B326" s="2" t="s">
         <v>419</v>
       </c>
@@ -10067,7 +10073,7 @@
         <v>25x125E</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B327" s="2" t="s">
         <v>420</v>
       </c>
@@ -10080,7 +10086,7 @@
         <v>26x13E</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B328" s="2" t="s">
         <v>421</v>
       </c>
@@ -10093,7 +10099,7 @@
         <v>26x15E</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" s="2" t="s">
         <v>422</v>
       </c>
@@ -10106,7 +10112,7 @@
         <v>27x13E</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B330" s="2" t="s">
         <v>423</v>
       </c>
@@ -10119,7 +10125,7 @@
         <v>28x20-4</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B331" s="2" t="s">
         <v>424</v>
       </c>
@@ -10132,7 +10138,7 @@
         <v>41x41E</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B332" s="2" t="s">
         <v>425</v>
       </c>
@@ -10145,7 +10151,7 @@
         <v>42x2</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="2" t="s">
         <v>426</v>
       </c>
@@ -10158,7 +10164,7 @@
         <v>42x4</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B334" s="2" t="s">
         <v>427</v>
       </c>
@@ -10171,7 +10177,7 @@
         <v>44x4</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B335" s="2" t="s">
         <v>428</v>
       </c>
@@ -10184,7 +10190,7 @@
         <v>45x35</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B336" s="2" t="s">
         <v>429</v>
       </c>
@@ -10197,7 +10203,7 @@
         <v>45x4</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B337" s="2" t="s">
         <v>430</v>
       </c>
@@ -10210,7 +10216,7 @@
         <v>45x41E</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B338" s="2" t="s">
         <v>431</v>
       </c>
@@ -10223,7 +10229,7 @@
         <v>46x3</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B339" s="2" t="s">
         <v>432</v>
       </c>
@@ -10236,7 +10242,7 @@
         <v>475x4</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B340" s="2" t="s">
         <v>433</v>
       </c>
@@ -10249,7 +10255,7 @@
         <v>475x45E</v>
       </c>
     </row>
-    <row r="341" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B341" s="2" t="s">
         <v>212</v>
       </c>
@@ -10258,7 +10264,7 @@
         <v>PER3_475x45E-------------------</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B342" s="2" t="s">
         <v>434</v>
       </c>
@@ -10271,7 +10277,7 @@
         <v>475x475E</v>
       </c>
     </row>
-    <row r="343" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B343" s="2" t="s">
         <v>213</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>PER3_475x475E-------------------</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B344" s="2" t="s">
         <v>435</v>
       </c>
@@ -10293,7 +10299,7 @@
         <v>475x55E</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B345" s="2" t="s">
         <v>436</v>
       </c>
@@ -10306,7 +10312,7 @@
         <v>47x42E</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B346" s="2" t="s">
         <v>437</v>
       </c>
@@ -10319,7 +10325,7 @@
         <v>4x33E</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B347" s="2" t="s">
         <v>438</v>
       </c>
@@ -10332,7 +10338,7 @@
         <v>4x45E</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B348" s="2" t="s">
         <v>439</v>
       </c>
@@ -10345,7 +10351,7 @@
         <v>4x4E-3</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B349" s="2" t="s">
         <v>440</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>51x45E</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B350" s="2" t="s">
         <v>441</v>
       </c>
@@ -10371,7 +10377,7 @@
         <v>51x50E</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B351" s="2" t="s">
         <v>442</v>
       </c>
@@ -10384,7 +10390,7 @@
         <v>51x50E-3</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B352" s="2" t="s">
         <v>443</v>
       </c>
@@ -10397,7 +10403,7 @@
         <v>52x60E</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B353" s="2" t="s">
         <v>444</v>
       </c>
@@ -10410,7 +10416,7 @@
         <v>525x475E</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B354" s="2" t="s">
         <v>445</v>
       </c>
@@ -10423,7 +10429,7 @@
         <v>525x55E</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B355" s="2" t="s">
         <v>446</v>
       </c>
@@ -10436,7 +10442,7 @@
         <v>525x625E</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B356" s="2" t="s">
         <v>447</v>
       </c>
@@ -10449,7 +10455,7 @@
         <v>55x2</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B357" s="2" t="s">
         <v>448</v>
       </c>
@@ -10462,7 +10468,7 @@
         <v>55x25</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B358" s="2" t="s">
         <v>449</v>
       </c>
@@ -10475,7 +10481,7 @@
         <v>55x45E</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B359" s="2" t="s">
         <v>450</v>
       </c>
@@ -10488,7 +10494,7 @@
         <v>55x47E</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B360" s="2" t="s">
         <v>451</v>
       </c>
@@ -10501,7 +10507,7 @@
         <v>55x65E</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B361" s="2" t="s">
         <v>452</v>
       </c>
@@ -10514,7 +10520,7 @@
         <v>57x3</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B362" s="2" t="s">
         <v>453</v>
       </c>
@@ -10527,7 +10533,7 @@
         <v>5x3</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B363" s="2" t="s">
         <v>454</v>
       </c>
@@ -10540,7 +10546,7 @@
         <v>5x3E</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B364" s="2" t="s">
         <v>455</v>
       </c>
@@ -10553,7 +10559,7 @@
         <v>5x37E-3</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B365" s="2" t="s">
         <v>456</v>
       </c>
@@ -10566,7 +10572,7 @@
         <v>5x43E</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B366" s="2" t="s">
         <v>457</v>
       </c>
@@ -10579,7 +10585,7 @@
         <v>5x45E</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B367" s="2" t="s">
         <v>458</v>
       </c>
@@ -10592,7 +10598,7 @@
         <v>5x46E</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B368" s="2" t="s">
         <v>459</v>
       </c>
@@ -10605,7 +10611,7 @@
         <v>5x4E-3</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B369" s="2" t="s">
         <v>460</v>
       </c>
@@ -10618,7 +10624,7 @@
         <v>5x4E-4</v>
       </c>
     </row>
-    <row r="370" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B370" s="2" t="s">
         <v>223</v>
       </c>
@@ -10627,7 +10633,7 @@
         <v>PER3_5x4-------------------</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B371" s="2" t="s">
         <v>461</v>
       </c>
@@ -10640,7 +10646,7 @@
         <v>5x5E</v>
       </c>
     </row>
-    <row r="372" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B372" s="2" t="s">
         <v>112</v>
       </c>
@@ -10649,7 +10655,7 @@
         <v>PER3_5x5-------------------</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B373" s="2" t="s">
         <v>462</v>
       </c>
@@ -10662,7 +10668,7 @@
         <v>5x75E</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B374" s="2" t="s">
         <v>463</v>
       </c>
@@ -10675,7 +10681,7 @@
         <v>63x4</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B375" s="2" t="s">
         <v>464</v>
       </c>
@@ -10688,7 +10694,7 @@
         <v>65x29</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B376" s="2" t="s">
         <v>465</v>
       </c>
@@ -10701,7 +10707,7 @@
         <v>65x37</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B377" s="2" t="s">
         <v>466</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>65x50</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B378" s="2" t="s">
         <v>467</v>
       </c>
@@ -10727,7 +10733,7 @@
         <v>65x55</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B379" s="2" t="s">
         <v>468</v>
       </c>
@@ -10740,7 +10746,7 @@
         <v>65x60</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B380" s="2" t="s">
         <v>469</v>
       </c>
@@ -10753,7 +10759,7 @@
         <v>65x65</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B381" s="2" t="s">
         <v>470</v>
       </c>
@@ -10766,7 +10772,7 @@
         <v>65x70</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B382" s="2" t="s">
         <v>471</v>
       </c>
@@ -10779,7 +10785,7 @@
         <v>6x2</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B383" s="2" t="s">
         <v>472</v>
       </c>
@@ -10792,7 +10798,7 @@
         <v>6x3</v>
       </c>
     </row>
-    <row r="384" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B384" s="2" t="s">
         <v>113</v>
       </c>
@@ -10801,7 +10807,7 @@
         <v>PER3_6x3-------------------</v>
       </c>
     </row>
-    <row r="385" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B385" s="2" t="s">
         <v>113</v>
       </c>
@@ -10810,7 +10816,7 @@
         <v>PER3_6x3-------------------</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B386" s="2" t="s">
         <v>473</v>
       </c>
@@ -10823,7 +10829,7 @@
         <v>6x4</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B387" s="2" t="s">
         <v>474</v>
       </c>
@@ -10836,7 +10842,7 @@
         <v>6x42E-3</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B388" s="2" t="s">
         <v>475</v>
       </c>
@@ -10849,7 +10855,7 @@
         <v>6x43E</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B389" s="2" t="s">
         <v>476</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v>6x45E</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B390" s="2" t="s">
         <v>477</v>
       </c>
@@ -10875,7 +10881,7 @@
         <v>6x4E</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B391" s="2" t="s">
         <v>478</v>
       </c>
@@ -10888,7 +10894,7 @@
         <v>6x5</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B392" s="2" t="s">
         <v>479</v>
       </c>
@@ -10901,7 +10907,7 @@
         <v>6x55E</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B393" s="2" t="s">
         <v>480</v>
       </c>
@@ -10914,7 +10920,7 @@
         <v>6x6E</v>
       </c>
     </row>
-    <row r="394" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B394" s="2" t="s">
         <v>214</v>
       </c>
@@ -10923,7 +10929,7 @@
         <v>PER3_74x75-------------------</v>
       </c>
     </row>
-    <row r="395" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B395" s="2" t="s">
         <v>215</v>
       </c>
@@ -10932,7 +10938,7 @@
         <v>PER3_74x76-------------------</v>
       </c>
     </row>
-    <row r="396" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B396" s="2" t="s">
         <v>216</v>
       </c>
@@ -10941,7 +10947,7 @@
         <v>PER3_74x77-------------------</v>
       </c>
     </row>
-    <row r="397" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B397" s="2" t="s">
         <v>217</v>
       </c>
@@ -10950,7 +10956,7 @@
         <v>PER3_74x78-------------------</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B398" s="2" t="s">
         <v>481</v>
       </c>
@@ -10963,7 +10969,7 @@
         <v>75x25</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B399" s="2" t="s">
         <v>482</v>
       </c>
@@ -10976,7 +10982,7 @@
         <v>78x4</v>
       </c>
     </row>
-    <row r="400" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B400" s="2" t="s">
         <v>218</v>
       </c>
@@ -10985,7 +10991,7 @@
         <v>PER3_78x4-------------------</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B401" s="2" t="s">
         <v>483</v>
       </c>
@@ -10998,7 +11004,7 @@
         <v>78x6</v>
       </c>
     </row>
-    <row r="402" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B402" s="2" t="s">
         <v>219</v>
       </c>
@@ -11007,7 +11013,7 @@
         <v>PER3_78x6-------------------</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B403" s="2" t="s">
         <v>484</v>
       </c>
@@ -11020,7 +11026,7 @@
         <v>78x7</v>
       </c>
     </row>
-    <row r="404" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B404" s="2" t="s">
         <v>220</v>
       </c>
@@ -11029,7 +11035,7 @@
         <v>PER3_78x7-------------------</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B405" s="2" t="s">
         <v>485</v>
       </c>
@@ -11042,7 +11048,7 @@
         <v>7x10</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B406" s="2" t="s">
         <v>486</v>
       </c>
@@ -11055,7 +11061,7 @@
         <v>7x3</v>
       </c>
     </row>
-    <row r="407" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B407" s="2" t="s">
         <v>74</v>
       </c>
@@ -11064,7 +11070,7 @@
         <v>PER3_7x38W-------------------</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B408" s="2" t="s">
         <v>487</v>
       </c>
@@ -11077,7 +11083,7 @@
         <v>7x4</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B409" s="2" t="s">
         <v>488</v>
       </c>
@@ -11090,7 +11096,7 @@
         <v>7x4E</v>
       </c>
     </row>
-    <row r="410" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B410" s="2" t="s">
         <v>75</v>
       </c>
@@ -11099,7 +11105,7 @@
         <v>PER3_7x4-------------------</v>
       </c>
     </row>
-    <row r="411" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B411" s="2" t="s">
         <v>75</v>
       </c>
@@ -11108,7 +11114,7 @@
         <v>PER3_7x4-------------------</v>
       </c>
     </row>
-    <row r="412" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B412" s="2" t="s">
         <v>76</v>
       </c>
@@ -11117,7 +11123,7 @@
         <v>PER3_7x41-------------------</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B413" s="2" t="s">
         <v>489</v>
       </c>
@@ -11130,7 +11136,7 @@
         <v>7x5</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B414" s="2" t="s">
         <v>490</v>
       </c>
@@ -11143,7 +11149,7 @@
         <v>7x5E</v>
       </c>
     </row>
-    <row r="415" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B415" s="2" t="s">
         <v>77</v>
       </c>
@@ -11152,7 +11158,7 @@
         <v>PER3_7x5-------------------</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B416" s="2" t="s">
         <v>491</v>
       </c>
@@ -11165,7 +11171,7 @@
         <v>7x6</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B417" s="2" t="s">
         <v>492</v>
       </c>
@@ -11178,7 +11184,7 @@
         <v>7x65D</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B418" s="2" t="s">
         <v>493</v>
       </c>
@@ -11191,7 +11197,7 @@
         <v>7x6E</v>
       </c>
     </row>
-    <row r="419" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B419" s="2" t="s">
         <v>78</v>
       </c>
@@ -11200,7 +11206,7 @@
         <v>PER3_7x6-------------------</v>
       </c>
     </row>
-    <row r="420" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B420" s="2" t="s">
         <v>78</v>
       </c>
@@ -11209,7 +11215,7 @@
         <v>PER3_7x6-------------------</v>
       </c>
     </row>
-    <row r="421" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B421" s="2" t="s">
         <v>78</v>
       </c>
@@ -11218,7 +11224,7 @@
         <v>PER3_7x6-------------------</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B422" s="2" t="s">
         <v>494</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>7x7</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B423" s="2" t="s">
         <v>495</v>
       </c>
@@ -11244,7 +11250,7 @@
         <v>7x7E</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B424" s="2" t="s">
         <v>496</v>
       </c>
@@ -11257,7 +11263,7 @@
         <v>7x8</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B425" s="2" t="s">
         <v>497</v>
       </c>
@@ -11270,7 +11276,7 @@
         <v>7x9</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B426" s="2" t="s">
         <v>498</v>
       </c>
@@ -11283,7 +11289,7 @@
         <v>85x55</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B427" s="2" t="s">
         <v>499</v>
       </c>
@@ -11296,7 +11302,7 @@
         <v>85x70</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B428" s="2" t="s">
         <v>500</v>
       </c>
@@ -11309,7 +11315,7 @@
         <v>85x725</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B429" s="2" t="s">
         <v>501</v>
       </c>
@@ -11322,7 +11328,7 @@
         <v>85x75</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B430" s="2" t="s">
         <v>502</v>
       </c>
@@ -11335,7 +11341,7 @@
         <v>8625x375</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B431" s="2" t="s">
         <v>503</v>
       </c>
@@ -11348,7 +11354,7 @@
         <v>875x50</v>
       </c>
     </row>
-    <row r="432" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B432" s="2" t="s">
         <v>161</v>
       </c>
@@ -11357,7 +11363,7 @@
         <v>PER3_875x70-------------------</v>
       </c>
     </row>
-    <row r="433" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B433" s="2" t="s">
         <v>162</v>
       </c>
@@ -11366,7 +11372,7 @@
         <v>PER3_875x70N-------------------</v>
       </c>
     </row>
-    <row r="434" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B434" s="2" t="s">
         <v>163</v>
       </c>
@@ -11375,7 +11381,7 @@
         <v>PER3_875x75-------------------</v>
       </c>
     </row>
-    <row r="435" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B435" s="2" t="s">
         <v>164</v>
       </c>
@@ -11384,7 +11390,7 @@
         <v>PER3_875x75N-------------------</v>
       </c>
     </row>
-    <row r="436" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B436" s="2" t="s">
         <v>163</v>
       </c>
@@ -11393,7 +11399,7 @@
         <v>PER3_875x75-------------------</v>
       </c>
     </row>
-    <row r="437" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B437" s="2" t="s">
         <v>165</v>
       </c>
@@ -11402,7 +11408,7 @@
         <v>PER3_875x775-------------------</v>
       </c>
     </row>
-    <row r="438" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B438" s="2" t="s">
         <v>166</v>
       </c>
@@ -11411,7 +11417,7 @@
         <v>PER3_875x775N-------------------</v>
       </c>
     </row>
-    <row r="439" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B439" s="2" t="s">
         <v>165</v>
       </c>
@@ -11420,7 +11426,7 @@
         <v>PER3_875x775-------------------</v>
       </c>
     </row>
-    <row r="440" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B440" s="2" t="s">
         <v>167</v>
       </c>
@@ -11429,7 +11435,7 @@
         <v>PER3_875x80-------------------</v>
       </c>
     </row>
-    <row r="441" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B441" s="2" t="s">
         <v>168</v>
       </c>
@@ -11438,7 +11444,7 @@
         <v>PER3_875x80N-------------------</v>
       </c>
     </row>
-    <row r="442" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B442" s="2" t="s">
         <v>167</v>
       </c>
@@ -11447,7 +11453,7 @@
         <v>PER3_875x80-------------------</v>
       </c>
     </row>
-    <row r="443" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B443" s="2" t="s">
         <v>169</v>
       </c>
@@ -11456,7 +11462,7 @@
         <v>PER3_875x825-------------------</v>
       </c>
     </row>
-    <row r="444" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B444" s="2" t="s">
         <v>170</v>
       </c>
@@ -11465,7 +11471,7 @@
         <v>PER3_875x825N-------------------</v>
       </c>
     </row>
-    <row r="445" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B445" s="2" t="s">
         <v>169</v>
       </c>
@@ -11474,7 +11480,7 @@
         <v>PER3_875x825-------------------</v>
       </c>
     </row>
-    <row r="446" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B446" s="2" t="s">
         <v>171</v>
       </c>
@@ -11483,7 +11489,7 @@
         <v>PER3_875x85-------------------</v>
       </c>
     </row>
-    <row r="447" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B447" s="2" t="s">
         <v>172</v>
       </c>
@@ -11492,7 +11498,7 @@
         <v>PER3_875x85N-------------------</v>
       </c>
     </row>
-    <row r="448" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="2:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="B448" s="2" t="s">
         <v>171</v>
       </c>
@@ -11501,7 +11507,7 @@
         <v>PER3_875x85-------------------</v>
       </c>
     </row>
-    <row r="449" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B449" s="2" t="s">
         <v>173</v>
       </c>
@@ -11510,7 +11516,7 @@
         <v>PER3_875x875N-------------------</v>
       </c>
     </row>
-    <row r="450" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B450" s="2" t="s">
         <v>207</v>
       </c>
@@ -11519,7 +11525,7 @@
         <v>PER3_875x875-------------------</v>
       </c>
     </row>
-    <row r="451" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B451" s="2" t="s">
         <v>174</v>
       </c>
@@ -11528,7 +11534,7 @@
         <v>PER3_875x90N-------------------</v>
       </c>
     </row>
-    <row r="452" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B452" s="2" t="s">
         <v>208</v>
       </c>
@@ -11537,7 +11543,7 @@
         <v>PER3_875x90-------------------</v>
       </c>
     </row>
-    <row r="453" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B453" s="2" t="s">
         <v>175</v>
       </c>
@@ -11546,7 +11552,7 @@
         <v>PER3_875x925N-------------------</v>
       </c>
     </row>
-    <row r="454" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B454" s="2" t="s">
         <v>209</v>
       </c>
@@ -11555,7 +11561,7 @@
         <v>PER3_875x925-------------------</v>
       </c>
     </row>
-    <row r="455" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B455" s="2" t="s">
         <v>176</v>
       </c>
@@ -11564,7 +11570,7 @@
         <v>PER3_875x95N-------------------</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B456" s="2" t="s">
         <v>504</v>
       </c>
@@ -11577,7 +11583,7 @@
         <v>88x85</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B457" s="2" t="s">
         <v>505</v>
       </c>
@@ -11590,7 +11596,7 @@
         <v>88x875</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B458" s="2" t="s">
         <v>506</v>
       </c>
@@ -11603,7 +11609,7 @@
         <v>88x89</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B459" s="2" t="s">
         <v>507</v>
       </c>
@@ -11616,7 +11622,7 @@
         <v>88x90</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B460" s="2" t="s">
         <v>508</v>
       </c>
@@ -11629,7 +11635,7 @@
         <v>88x925</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B461" s="2" t="s">
         <v>509</v>
       </c>
@@ -11642,7 +11648,7 @@
         <v>88x95</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B462" s="2" t="s">
         <v>510</v>
       </c>
@@ -11655,7 +11661,7 @@
         <v>88x975</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B463" s="2" t="s">
         <v>511</v>
       </c>
@@ -11668,7 +11674,7 @@
         <v>8x10</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B464" s="2" t="s">
         <v>512</v>
       </c>
@@ -11681,7 +11687,7 @@
         <v>8x375</v>
       </c>
     </row>
-    <row r="465" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B465" s="2" t="s">
         <v>210</v>
       </c>
@@ -11690,7 +11696,7 @@
         <v>PER3_8x375-------------------</v>
       </c>
     </row>
-    <row r="466" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B466" s="2" t="s">
         <v>79</v>
       </c>
@@ -11699,7 +11705,7 @@
         <v>PER3_8x38-------------------</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B467" s="2" t="s">
         <v>513</v>
       </c>
@@ -11712,7 +11718,7 @@
         <v>8x4</v>
       </c>
     </row>
-    <row r="468" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B468" s="2" t="s">
         <v>80</v>
       </c>
@@ -11721,7 +11727,7 @@
         <v>PER3_8x41-------------------</v>
       </c>
     </row>
-    <row r="469" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B469" s="2" t="s">
         <v>221</v>
       </c>
@@ -11730,7 +11736,7 @@
         <v>PER3_8x42-------------------</v>
       </c>
     </row>
-    <row r="470" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B470" s="2" t="s">
         <v>102</v>
       </c>
@@ -11739,7 +11745,7 @@
         <v>PER3_8x45-------------------</v>
       </c>
     </row>
-    <row r="471" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B471" s="2" t="s">
         <v>81</v>
       </c>
@@ -11748,7 +11754,7 @@
         <v>PER3_8x47-------------------</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B472" s="2" t="s">
         <v>514</v>
       </c>
@@ -11761,7 +11767,7 @@
         <v>8x4E</v>
       </c>
     </row>
-    <row r="473" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B473" s="2" t="s">
         <v>114</v>
       </c>
@@ -11770,7 +11776,7 @@
         <v>PER3_8x4-------------------</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B474" s="2" t="s">
         <v>515</v>
       </c>
@@ -11783,7 +11789,7 @@
         <v>8x5</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B475" s="2" t="s">
         <v>516</v>
       </c>
@@ -11796,7 +11802,7 @@
         <v>8x6</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B476" s="2" t="s">
         <v>517</v>
       </c>
@@ -11809,7 +11815,7 @@
         <v>8x6E</v>
       </c>
     </row>
-    <row r="477" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B477" s="2" t="s">
         <v>82</v>
       </c>
@@ -11818,7 +11824,7 @@
         <v>PER3_8x6-------------------</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B478" s="2" t="s">
         <v>518</v>
       </c>
@@ -11831,7 +11837,7 @@
         <v>8x7</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B479" s="2" t="s">
         <v>519</v>
       </c>
@@ -11844,7 +11850,7 @@
         <v>8x73</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B480" s="2" t="s">
         <v>520</v>
       </c>
@@ -11857,7 +11863,7 @@
         <v>8x8</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B481" s="2" t="s">
         <v>521</v>
       </c>
@@ -11870,7 +11876,7 @@
         <v>8x8E</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B482" s="2" t="s">
         <v>522</v>
       </c>
@@ -11883,7 +11889,7 @@
         <v>8x9</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B483" s="2" t="s">
         <v>523</v>
       </c>
@@ -11896,7 +11902,7 @@
         <v>925x50</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B484" s="2" t="s">
         <v>524</v>
       </c>
@@ -11909,7 +11915,7 @@
         <v>925x525</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B485" s="2" t="s">
         <v>525</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>925x55</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B486" s="2" t="s">
         <v>526</v>
       </c>
@@ -11935,7 +11941,7 @@
         <v>925x575</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B487" s="2" t="s">
         <v>527</v>
       </c>
@@ -11948,7 +11954,7 @@
         <v>925x60</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B488" s="2" t="s">
         <v>528</v>
       </c>
@@ -11961,7 +11967,7 @@
         <v>93x3</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B489" s="2" t="s">
         <v>529</v>
       </c>
@@ -11974,7 +11980,7 @@
         <v>95x45</v>
       </c>
     </row>
-    <row r="490" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B490" s="2" t="s">
         <v>103</v>
       </c>
@@ -11983,7 +11989,7 @@
         <v>PER3_95x5-------------------</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B491" s="2" t="s">
         <v>530</v>
       </c>
@@ -11996,7 +12002,7 @@
         <v>95x6</v>
       </c>
     </row>
-    <row r="492" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B492" s="2" t="s">
         <v>177</v>
       </c>
@@ -12005,7 +12011,7 @@
         <v>PER3_95x65-------------------</v>
       </c>
     </row>
-    <row r="493" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B493" s="2" t="s">
         <v>178</v>
       </c>
@@ -12014,7 +12020,7 @@
         <v>PER3_95x75-------------------</v>
       </c>
     </row>
-    <row r="494" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B494" s="2" t="s">
         <v>179</v>
       </c>
@@ -12023,7 +12029,7 @@
         <v>PER3_95x7-------------------</v>
       </c>
     </row>
-    <row r="495" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B495" s="2" t="s">
         <v>180</v>
       </c>
@@ -12032,7 +12038,7 @@
         <v>PER3_95x85-------------------</v>
       </c>
     </row>
-    <row r="496" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B496" s="2" t="s">
         <v>181</v>
       </c>
@@ -12041,7 +12047,7 @@
         <v>PER3_95x8-------------------</v>
       </c>
     </row>
-    <row r="497" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B497" s="2" t="s">
         <v>182</v>
       </c>
@@ -12050,7 +12056,7 @@
         <v>PER3_9625x375-------------------</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B498" s="2" t="s">
         <v>531</v>
       </c>
@@ -12063,7 +12069,7 @@
         <v>9x10</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B499" s="2" t="s">
         <v>532</v>
       </c>
@@ -12076,7 +12082,7 @@
         <v>9x3</v>
       </c>
     </row>
-    <row r="500" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B500" s="2" t="s">
         <v>83</v>
       </c>
@@ -12085,7 +12091,7 @@
         <v>PER3_9x37-------------------</v>
       </c>
     </row>
-    <row r="501" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B501" s="2" t="s">
         <v>84</v>
       </c>
@@ -12094,7 +12100,7 @@
         <v>PER3_9x38-------------------</v>
       </c>
     </row>
-    <row r="502" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B502" s="2" t="s">
         <v>183</v>
       </c>
@@ -12103,7 +12109,7 @@
         <v>PER3_9x3-------------------</v>
       </c>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B503" s="2" t="s">
         <v>533</v>
       </c>
@@ -12116,7 +12122,7 @@
         <v>9x4</v>
       </c>
     </row>
-    <row r="504" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B504" s="2" t="s">
         <v>85</v>
       </c>
@@ -12125,7 +12131,7 @@
         <v>PER3_9x41-------------------</v>
       </c>
     </row>
-    <row r="505" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B505" s="2" t="s">
         <v>222</v>
       </c>
@@ -12134,7 +12140,7 @@
         <v>PER3_9x44-------------------</v>
       </c>
     </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B506" s="2" t="s">
         <v>534</v>
       </c>
@@ -12147,7 +12153,7 @@
         <v>9x45E</v>
       </c>
     </row>
-    <row r="507" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B507" s="2" t="s">
         <v>104</v>
       </c>
@@ -12156,7 +12162,7 @@
         <v>PER3_9x45-------------------</v>
       </c>
     </row>
-    <row r="508" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B508" s="2" t="s">
         <v>104</v>
       </c>
@@ -12165,7 +12171,7 @@
         <v>PER3_9x45-------------------</v>
       </c>
     </row>
-    <row r="509" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B509" s="2" t="s">
         <v>104</v>
       </c>
@@ -12174,7 +12180,7 @@
         <v>PER3_9x45-------------------</v>
       </c>
     </row>
-    <row r="510" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B510" s="2" t="s">
         <v>86</v>
       </c>
@@ -12183,7 +12189,7 @@
         <v>PER3_9x46-------------------</v>
       </c>
     </row>
-    <row r="511" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B511" s="2" t="s">
         <v>87</v>
       </c>
@@ -12192,7 +12198,7 @@
         <v>PER3_9x47-------------------</v>
       </c>
     </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B512" s="2" t="s">
         <v>535</v>
       </c>
@@ -12205,7 +12211,7 @@
         <v>9x5</v>
       </c>
     </row>
-    <row r="513" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B513" s="2" t="s">
         <v>115</v>
       </c>
@@ -12214,7 +12220,7 @@
         <v>PER3_9x5-------------------</v>
       </c>
     </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B514" s="2" t="s">
         <v>536</v>
       </c>
@@ -12227,7 +12233,7 @@
         <v>9x6-3</v>
       </c>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B515" s="2" t="s">
         <v>537</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>9x6-4</v>
       </c>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B516" s="2" t="s">
         <v>538</v>
       </c>
@@ -12253,7 +12259,7 @@
         <v>9x6</v>
       </c>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B517" s="2" t="s">
         <v>539</v>
       </c>
@@ -12266,7 +12272,7 @@
         <v>9x65</v>
       </c>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B518" s="2" t="s">
         <v>540</v>
       </c>
@@ -12279,7 +12285,7 @@
         <v>9x6E</v>
       </c>
     </row>
-    <row r="519" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B519" s="2" t="s">
         <v>88</v>
       </c>
@@ -12288,7 +12294,7 @@
         <v>PER3_9x6-------------------</v>
       </c>
     </row>
-    <row r="520" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B520" s="2" t="s">
         <v>88</v>
       </c>
@@ -12297,7 +12303,7 @@
         <v>PER3_9x6-------------------</v>
       </c>
     </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B521" s="2" t="s">
         <v>541</v>
       </c>
@@ -12310,7 +12316,7 @@
         <v>9x7</v>
       </c>
     </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B522" s="2" t="s">
         <v>542</v>
       </c>
@@ -12323,7 +12329,7 @@
         <v>9x75</v>
       </c>
     </row>
-    <row r="523" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B523" s="2" t="s">
         <v>89</v>
       </c>
@@ -12332,7 +12338,7 @@
         <v>PER3_9x75-------------------</v>
       </c>
     </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B524" s="2" t="s">
         <v>543</v>
       </c>
@@ -12345,7 +12351,7 @@
         <v>9x75E</v>
       </c>
     </row>
-    <row r="525" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B525" s="2" t="s">
         <v>89</v>
       </c>
@@ -12354,7 +12360,7 @@
         <v>PER3_9x75-------------------</v>
       </c>
     </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B526" s="2" t="s">
         <v>544</v>
       </c>
@@ -12367,7 +12373,7 @@
         <v>9x8</v>
       </c>
     </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B527" s="2" t="s">
         <v>545</v>
       </c>
@@ -12380,7 +12386,7 @@
         <v>9x8E-3</v>
       </c>
     </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B528" s="2" t="s">
         <v>546</v>
       </c>
@@ -12393,7 +12399,7 @@
         <v>9x85</v>
       </c>
     </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B529" s="2" t="s">
         <v>547</v>
       </c>
@@ -12406,7 +12412,7 @@
         <v>9x9</v>
       </c>
     </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B530" s="2" t="s">
         <v>548</v>
       </c>
@@ -12964,21 +12970,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3A6FF967F92A24EA7BEE7DA24190694" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15dfa32f176e1759ee98bc7e06bd358f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a44f885d-1187-4934-9b36-22bed23f92c8" xmlns:ns4="5db44a93-5590-4792-9555-bb98fd9f9407" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8664e41cee6e6511bdd2a3b586227730" ns3:_="" ns4:_="">
     <xsd:import namespace="a44f885d-1187-4934-9b36-22bed23f92c8"/>
@@ -13189,10 +13180,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F5A92BF-BBD4-4993-91F8-F1E5270D6F44}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FCF1E0-8462-4DCB-BC19-7A1C1B428F96}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a44f885d-1187-4934-9b36-22bed23f92c8"/>
+    <ds:schemaRef ds:uri="5db44a93-5590-4792-9555-bb98fd9f9407"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13215,20 +13232,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FCF1E0-8462-4DCB-BC19-7A1C1B428F96}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F5A92BF-BBD4-4993-91F8-F1E5270D6F44}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a44f885d-1187-4934-9b36-22bed23f92c8"/>
-    <ds:schemaRef ds:uri="5db44a93-5590-4792-9555-bb98fd9f9407"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>